--- a/Doc/Arch/TeC命令表.xlsx
+++ b/Doc/Arch/TeC命令表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigemura/Library/Mobile Documents/com~apple~CloudDocs/GitHub/TeC7/Doc/Arch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ikenagahimena/Library/CloudStorage/OneDrive-独立行政法人国立高等専門学校機構/卒研/TeC7/Doc/Arch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1628FE9B-EA45-6746-B2D4-E739363AD94A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4568442-F318-314C-9B25-578C1D93747A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25280" windowHeight="15000" xr2:uid="{68F70C4F-7FF3-B64E-A555-E2BFC8105214}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="205">
   <si>
     <t>OP</t>
     <phoneticPr fontId="1"/>
@@ -127,18 +127,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PUSHF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>POP</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>POPF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EI</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -271,18 +263,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Push Flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Pop Register</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Pop Flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Enable Interrupt</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -404,10 +388,6 @@
   </si>
   <si>
     <t>0000 pppp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11 01</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1369,57 +1349,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[--SP] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> FLAG</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">GR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> [SP++]</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FLAG </t>
     </r>
     <r>
       <rPr>
@@ -2719,15 +2649,81 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2781,72 +2777,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3168,10 +3098,10 @@
   <dimension ref="B1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:K2"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="3" customWidth="1"/>
@@ -3189,102 +3119,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" customHeight="1">
-      <c r="B1" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="46"/>
+      <c r="B1" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="67"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="86" t="s">
-        <v>211</v>
-      </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="F1" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="2:11" ht="17" customHeight="1" thickBot="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="1"/>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1">
+      <c r="B3" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1">
-      <c r="B3" s="63" t="s">
+      <c r="I3" s="80"/>
+      <c r="J3" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="K3" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="B4" s="64"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="55" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="49"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="16" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="62"/>
+      <c r="I5" s="84"/>
       <c r="J5" s="8">
         <v>3</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="16" customHeight="1">
@@ -3292,27 +3222,27 @@
         <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="45"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="64"/>
       <c r="F6" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="75"/>
+        <v>35</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="62"/>
       <c r="J6" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16" customHeight="1">
@@ -3320,27 +3250,27 @@
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="45"/>
+        <v>38</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="64"/>
       <c r="F7" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="75"/>
+        <v>35</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="62"/>
       <c r="J7" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="16" customHeight="1">
@@ -3348,27 +3278,27 @@
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="45"/>
+        <v>39</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="64"/>
       <c r="F8" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="I8" s="75"/>
+        <v>35</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="62"/>
       <c r="J8" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="16" customHeight="1">
@@ -3376,27 +3306,27 @@
         <v>6</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="45"/>
+        <v>40</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="64"/>
       <c r="F9" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="I9" s="75"/>
+        <v>35</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="62"/>
       <c r="J9" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="16" customHeight="1">
@@ -3404,27 +3334,27 @@
         <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="45"/>
+        <v>41</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="64"/>
       <c r="F10" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="I10" s="75"/>
+        <v>35</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="62"/>
       <c r="J10" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="16" customHeight="1">
@@ -3432,27 +3362,27 @@
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="45"/>
+        <v>42</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="64"/>
       <c r="F11" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="I11" s="75"/>
+        <v>35</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="62"/>
       <c r="J11" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="16" customHeight="1">
@@ -3460,27 +3390,27 @@
         <v>9</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="45"/>
+        <v>43</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="64"/>
       <c r="F12" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="I12" s="75"/>
+        <v>35</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="62"/>
       <c r="J12" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="16" customHeight="1">
@@ -3488,27 +3418,27 @@
         <v>10</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="45"/>
+        <v>44</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="64"/>
       <c r="F13" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="62"/>
+      <c r="J13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>160</v>
-      </c>
-      <c r="I13" s="75"/>
-      <c r="J13" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="16" customHeight="1">
@@ -3516,27 +3446,27 @@
         <v>11</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="45"/>
+        <v>45</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="64"/>
       <c r="F14" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="I14" s="75"/>
+        <v>88</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="62"/>
       <c r="J14" s="11">
         <v>4</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="16" customHeight="1">
@@ -3544,27 +3474,27 @@
         <v>12</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="64"/>
+      <c r="F15" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="G15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="75"/>
+        <v>88</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="62"/>
       <c r="J15" s="11">
         <v>4</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="16" customHeight="1">
@@ -3572,27 +3502,27 @@
         <v>13</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="45"/>
+        <v>32</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="64"/>
       <c r="F16" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" s="75"/>
+        <v>88</v>
+      </c>
+      <c r="H16" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" s="62"/>
       <c r="J16" s="11">
         <v>4</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="16" customHeight="1">
@@ -3600,27 +3530,27 @@
         <v>14</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="45"/>
+        <v>47</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="64"/>
       <c r="F17" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="I17" s="75"/>
+        <v>88</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="I17" s="62"/>
       <c r="J17" s="11">
         <v>4</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="16" customHeight="1">
@@ -3628,27 +3558,27 @@
         <v>15</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="45"/>
+        <v>48</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="64"/>
       <c r="F18" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="75"/>
+        <v>35</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="62"/>
       <c r="J18" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="16" customHeight="1">
@@ -3656,27 +3586,27 @@
         <v>16</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="45"/>
+        <v>49</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="64"/>
       <c r="F19" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="75"/>
+        <v>35</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="62"/>
       <c r="J19" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="16" customHeight="1">
@@ -3684,55 +3614,55 @@
         <v>17</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="45"/>
+        <v>50</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="64"/>
       <c r="F20" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="75"/>
+        <v>35</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="62"/>
       <c r="J20" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="16" customHeight="1">
       <c r="B21" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="45"/>
+        <v>51</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="64"/>
       <c r="F21" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="75"/>
+        <v>35</v>
+      </c>
+      <c r="H21" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="62"/>
       <c r="J21" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16" customHeight="1">
@@ -3740,27 +3670,27 @@
         <v>18</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="45"/>
+        <v>52</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="64"/>
       <c r="F22" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="75"/>
+        <v>35</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="62"/>
       <c r="J22" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="16" customHeight="1">
@@ -3768,27 +3698,27 @@
         <v>19</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="45"/>
+        <v>53</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="64"/>
       <c r="F23" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="75"/>
+        <v>35</v>
+      </c>
+      <c r="H23" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="62"/>
       <c r="J23" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="16" customHeight="1">
@@ -3796,27 +3726,27 @@
         <v>20</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="45"/>
+        <v>54</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="64"/>
       <c r="F24" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="75"/>
+        <v>35</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="62"/>
       <c r="J24" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16" customHeight="1">
@@ -3824,27 +3754,27 @@
         <v>21</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="45"/>
+        <v>55</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="64"/>
       <c r="F25" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="75"/>
+        <v>35</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="62"/>
       <c r="J25" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="16" customHeight="1">
@@ -3852,27 +3782,27 @@
         <v>22</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="45"/>
+        <v>56</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="64"/>
       <c r="F26" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H26" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="75"/>
+        <v>90</v>
+      </c>
+      <c r="H26" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="62"/>
       <c r="J26" s="11">
         <v>8</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="16" customHeight="1">
@@ -3880,27 +3810,27 @@
         <v>23</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="45"/>
+        <v>57</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="64"/>
       <c r="F27" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H27" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="75"/>
+        <v>90</v>
+      </c>
+      <c r="H27" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="62"/>
       <c r="J27" s="11">
         <v>8</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="16" customHeight="1">
@@ -3908,27 +3838,27 @@
         <v>24</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="45"/>
+        <v>58</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="64"/>
       <c r="F28" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="75"/>
+        <v>88</v>
+      </c>
+      <c r="H28" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="62"/>
       <c r="J28" s="11">
         <v>6</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="16" customHeight="1">
@@ -3936,27 +3866,27 @@
         <v>25</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="14" t="s">
-        <v>95</v>
+        <v>59</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="64"/>
+      <c r="F29" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="75"/>
+        <v>88</v>
+      </c>
+      <c r="H29" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="62"/>
       <c r="J29" s="11">
         <v>6</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="16" customHeight="1">
@@ -3964,27 +3894,27 @@
         <v>26</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="11" t="s">
-        <v>86</v>
+        <v>60</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="64"/>
+      <c r="F30" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="75"/>
-      <c r="J30" s="11">
-        <v>6</v>
+        <v>88</v>
+      </c>
+      <c r="H30" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="62"/>
+      <c r="J30" s="16">
+        <v>4</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="16" customHeight="1">
@@ -3992,27 +3922,27 @@
         <v>27</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="45"/>
+        <v>61</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="64"/>
       <c r="F31" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="I31" s="75"/>
+        <v>88</v>
+      </c>
+      <c r="H31" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="62"/>
       <c r="J31" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="16" customHeight="1">
@@ -4020,27 +3950,27 @@
         <v>28</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="45"/>
+        <v>62</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="64"/>
       <c r="F32" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="75"/>
-      <c r="J32" s="16">
-        <v>4</v>
+      <c r="I32" s="62"/>
+      <c r="J32" s="11">
+        <v>6</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="16" customHeight="1">
@@ -4048,560 +3978,449 @@
         <v>29</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="45"/>
+        <v>63</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="64"/>
       <c r="F33" s="14" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="75"/>
+        <v>88</v>
+      </c>
+      <c r="H33" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="62"/>
       <c r="J33" s="11">
+        <v>6</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="16" customHeight="1" thickBot="1">
+      <c r="B34" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="66"/>
+      <c r="F34" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="54"/>
+      <c r="J34" s="19">
         <v>4</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K34" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="16" customHeight="1" thickBot="1"/>
+    <row r="36" spans="2:11" ht="16" customHeight="1" thickBot="1">
+      <c r="B36" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="56"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+    </row>
+    <row r="37" spans="2:11" ht="15" customHeight="1" thickBot="1">
+      <c r="B37" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="55" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" ht="16" customHeight="1">
-      <c r="B34" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H34" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="75"/>
-      <c r="J34" s="11">
-        <v>6</v>
-      </c>
-      <c r="K34" s="13" t="s">
+      <c r="G37" s="57"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="K37" s="57"/>
+    </row>
+    <row r="38" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="B38" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="59"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="30">
+        <v>0</v>
+      </c>
+      <c r="J38" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" s="59"/>
+    </row>
+    <row r="39" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="B39" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="45"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="32">
+        <v>1</v>
+      </c>
+      <c r="J39" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="K39" s="46"/>
+    </row>
+    <row r="40" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B40" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="45"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="32">
+        <v>2</v>
+      </c>
+      <c r="J40" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="K40" s="46"/>
+    </row>
+    <row r="41" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
+      <c r="E41" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="45" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" ht="16" customHeight="1">
-      <c r="B35" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="45"/>
-      <c r="F35" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="75"/>
-      <c r="J35" s="11">
-        <v>6</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="16" customHeight="1" thickBot="1">
-      <c r="B36" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="73"/>
-      <c r="F36" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H36" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="77"/>
-      <c r="J36" s="19">
-        <v>4</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="15" customHeight="1" thickBot="1"/>
-    <row r="38" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B38" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="J38" s="66"/>
-      <c r="K38" s="67"/>
-    </row>
-    <row r="39" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B39" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="G39" s="67"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="J39" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="K39" s="67"/>
-    </row>
-    <row r="40" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B40" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="G40" s="69"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="30">
-        <v>0</v>
-      </c>
-      <c r="J40" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="K40" s="69"/>
-    </row>
-    <row r="41" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B41" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" s="70"/>
-      <c r="G41" s="71"/>
+      <c r="G41" s="46"/>
       <c r="H41" s="22"/>
       <c r="I41" s="32">
-        <v>1</v>
-      </c>
-      <c r="J41" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="K41" s="71"/>
+        <v>3</v>
+      </c>
+      <c r="J41" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="K41" s="46"/>
     </row>
     <row r="42" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="70"/>
-      <c r="G42" s="71"/>
+      <c r="F42" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42" s="46"/>
       <c r="H42" s="22"/>
       <c r="I42" s="32">
-        <v>2</v>
-      </c>
-      <c r="J42" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="K42" s="71"/>
-    </row>
-    <row r="43" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
+        <v>4</v>
+      </c>
+      <c r="J42" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="K42" s="46"/>
+    </row>
+    <row r="43" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="B43" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="26"/>
       <c r="E43" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="G43" s="71"/>
+        <v>115</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" s="46"/>
       <c r="H43" s="22"/>
       <c r="I43" s="32">
-        <v>3</v>
-      </c>
-      <c r="J43" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="K43" s="71"/>
-    </row>
-    <row r="44" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B44" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D44" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="J43" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="K43" s="46"/>
+    </row>
+    <row r="44" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="B44" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" s="26"/>
       <c r="E44" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="F44" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="G44" s="71"/>
+        <v>116</v>
+      </c>
+      <c r="F44" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="G44" s="46"/>
       <c r="H44" s="22"/>
       <c r="I44" s="32">
-        <v>4</v>
-      </c>
-      <c r="J44" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="K44" s="46"/>
+    </row>
+    <row r="45" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="B45" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="K44" s="71"/>
-    </row>
-    <row r="45" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B45" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="G45" s="71"/>
+      <c r="G45" s="46"/>
       <c r="H45" s="22"/>
       <c r="I45" s="32">
-        <v>5</v>
-      </c>
-      <c r="J45" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="K45" s="71"/>
-    </row>
-    <row r="46" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B46" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>197</v>
+        <v>7</v>
+      </c>
+      <c r="J45" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="K45" s="46"/>
+    </row>
+    <row r="46" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B46" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>195</v>
       </c>
       <c r="D46" s="26"/>
-      <c r="E46" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="G46" s="71"/>
+      <c r="E46" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
       <c r="H46" s="22"/>
       <c r="I46" s="32">
-        <v>6</v>
-      </c>
-      <c r="J46" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="K46" s="71"/>
-    </row>
-    <row r="47" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B47" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="G47" s="71"/>
+        <v>8</v>
+      </c>
+      <c r="J46" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="K46" s="46"/>
+    </row>
+    <row r="47" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="E47" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="51"/>
+      <c r="G47" s="52"/>
       <c r="H47" s="22"/>
       <c r="I47" s="32">
-        <v>7</v>
-      </c>
-      <c r="J47" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="K47" s="71"/>
-    </row>
-    <row r="48" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B48" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="K47" s="46"/>
+    </row>
+    <row r="48" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="J48" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="K48" s="46"/>
+    </row>
+    <row r="49" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="B49" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="60"/>
+      <c r="F49" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="J49" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="K49" s="46"/>
+    </row>
+    <row r="50" spans="2:11" s="23" customFormat="1" ht="20" customHeight="1">
+      <c r="B50" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="F48" s="70"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="32">
-        <v>8</v>
-      </c>
-      <c r="J48" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="K48" s="71"/>
-    </row>
-    <row r="49" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="E49" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49" s="84"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="32">
-        <v>9</v>
-      </c>
-      <c r="J49" s="70" t="s">
-        <v>204</v>
-      </c>
-      <c r="K49" s="71"/>
-    </row>
-    <row r="50" spans="2:11" s="23" customFormat="1" ht="20" customHeight="1">
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
+      <c r="C50" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="37"/>
+      <c r="E50" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="36"/>
       <c r="I50" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="J50" s="70" t="s">
-        <v>205</v>
-      </c>
-      <c r="K50" s="71"/>
-    </row>
-    <row r="51" spans="2:11" s="23" customFormat="1" ht="18">
-      <c r="B51" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J50" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="K50" s="46"/>
+    </row>
+    <row r="51" spans="2:11" s="23" customFormat="1" ht="16">
+      <c r="B51" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="37"/>
+      <c r="E51" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="J51" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="K51" s="48"/>
+    </row>
+    <row r="52" spans="2:11" s="23" customFormat="1" ht="16" thickBot="1">
+      <c r="B52" s="42" t="s">
         <v>137</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="D51" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="E51" s="79"/>
-      <c r="F51" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="J51" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="K51" s="71"/>
-    </row>
-    <row r="52" spans="2:11" s="23" customFormat="1" ht="18">
-      <c r="B52" s="42" t="s">
-        <v>138</v>
       </c>
       <c r="C52" s="41" t="s">
         <v>139</v>
       </c>
       <c r="D52" s="37"/>
-      <c r="E52" s="78" t="s">
-        <v>207</v>
-      </c>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
+      <c r="E52" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
       <c r="H52" s="36"/>
-      <c r="I52" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="J52" s="70" t="s">
-        <v>208</v>
-      </c>
-      <c r="K52" s="71"/>
+      <c r="I52" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="J52" s="49"/>
+      <c r="K52" s="50"/>
     </row>
     <row r="53" spans="2:11" s="23" customFormat="1">
-      <c r="B53" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" s="37"/>
-      <c r="E53" s="78" t="s">
-        <v>209</v>
-      </c>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="J53" s="80" t="s">
-        <v>210</v>
-      </c>
-      <c r="K53" s="81"/>
-    </row>
-    <row r="54" spans="2:11" s="23" customFormat="1" thickBot="1">
-      <c r="B54" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" s="37"/>
-      <c r="E54" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J54" s="82"/>
-      <c r="K54" s="83"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="2:11" s="23" customFormat="1">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K54"/>
-    <mergeCell ref="F47:G49"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="F40:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
+  <mergeCells count="99">
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
@@ -4626,6 +4445,81 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="F38:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="F45:G47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Arch/TeC命令表.xlsx
+++ b/Doc/Arch/TeC命令表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ikenagahimena/Library/CloudStorage/OneDrive-独立行政法人国立高等専門学校機構/卒研/TeC7/Doc/Arch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4568442-F318-314C-9B25-578C1D93747A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A53ADCF-B998-BE46-9E15-5EECE8C2BAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25280" windowHeight="15000" xr2:uid="{68F70C4F-7FF3-B64E-A555-E2BFC8105214}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="202">
   <si>
     <t>OP</t>
     <phoneticPr fontId="1"/>
@@ -295,14 +295,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5/7/7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-/7/7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0010</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -412,18 +404,6 @@
   </si>
   <si>
     <t>1111</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-/5/6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4/5/6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-/6/7</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1995,6 +1975,14 @@
       </rPr>
       <t>インデクスド</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2649,134 +2637,134 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3098,7 +3086,7 @@
   <dimension ref="B1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -3119,75 +3107,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" customHeight="1">
-      <c r="B1" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="67"/>
+      <c r="B1" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="46"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="68" t="s">
-        <v>204</v>
-      </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="F1" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="2:11" ht="17" customHeight="1" thickBot="1">
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="1"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1">
+      <c r="B3" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1">
-      <c r="B3" s="85" t="s">
+      <c r="I3" s="59"/>
+      <c r="J3" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="K3" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" s="80"/>
-      <c r="J3" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="K3" s="70" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="B4" s="86"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="77" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="78"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="71"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="16" customHeight="1">
       <c r="B5" s="6" t="s">
@@ -3196,25 +3184,25 @@
       <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="73"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="84"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="16" customHeight="1">
@@ -3224,25 +3212,25 @@
       <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="64"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="12" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16" customHeight="1">
@@ -3252,25 +3240,25 @@
       <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="64"/>
+      <c r="D7" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="45"/>
       <c r="F7" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="62"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="14" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="16" customHeight="1">
@@ -3280,25 +3268,25 @@
       <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="64"/>
+      <c r="D8" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="45"/>
       <c r="F8" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="I8" s="62"/>
+      <c r="H8" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" s="67"/>
       <c r="J8" s="12" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="16" customHeight="1">
@@ -3308,25 +3296,25 @@
       <c r="C9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="64"/>
+      <c r="D9" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="45"/>
       <c r="F9" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="I9" s="62"/>
+      <c r="H9" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="67"/>
       <c r="J9" s="12" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="16" customHeight="1">
@@ -3336,25 +3324,25 @@
       <c r="C10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="64"/>
+      <c r="D10" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="45"/>
       <c r="F10" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="I10" s="62"/>
+      <c r="H10" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="67"/>
       <c r="J10" s="12" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="16" customHeight="1">
@@ -3364,25 +3352,25 @@
       <c r="C11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="64"/>
+      <c r="D11" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="45"/>
       <c r="F11" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="I11" s="62"/>
+      <c r="H11" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="67"/>
       <c r="J11" s="12" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="16" customHeight="1">
@@ -3392,25 +3380,25 @@
       <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="64"/>
+      <c r="D12" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="45"/>
       <c r="F12" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="I12" s="62"/>
+      <c r="H12" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="67"/>
       <c r="J12" s="12" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="16" customHeight="1">
@@ -3420,25 +3408,25 @@
       <c r="C13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="64"/>
+      <c r="D13" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="45"/>
       <c r="F13" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="67"/>
+      <c r="J13" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="16" customHeight="1">
@@ -3448,25 +3436,25 @@
       <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="64"/>
+      <c r="D14" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="45"/>
       <c r="F14" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="I14" s="62"/>
+        <v>86</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="67"/>
       <c r="J14" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="16" customHeight="1">
@@ -3476,25 +3464,25 @@
       <c r="C15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="64"/>
+      <c r="D15" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="45"/>
       <c r="F15" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="I15" s="62"/>
+        <v>86</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="67"/>
       <c r="J15" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="16" customHeight="1">
@@ -3504,25 +3492,25 @@
       <c r="C16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="64"/>
+      <c r="D16" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="45"/>
       <c r="F16" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="I16" s="62"/>
+        <v>86</v>
+      </c>
+      <c r="H16" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" s="67"/>
       <c r="J16" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="16" customHeight="1">
@@ -3532,25 +3520,25 @@
       <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="64"/>
+      <c r="D17" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="45"/>
       <c r="F17" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="I17" s="62"/>
+        <v>86</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="67"/>
       <c r="J17" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="16" customHeight="1">
@@ -3560,25 +3548,25 @@
       <c r="C18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="64"/>
+      <c r="D18" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="45"/>
       <c r="F18" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="61" t="s">
+      <c r="H18" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="62"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="14" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="16" customHeight="1">
@@ -3588,25 +3576,25 @@
       <c r="C19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="64"/>
+      <c r="D19" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="45"/>
       <c r="F19" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="62"/>
+      <c r="I19" s="67"/>
       <c r="J19" s="14" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="16" customHeight="1">
@@ -3616,53 +3604,53 @@
       <c r="C20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="64"/>
+      <c r="D20" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="45"/>
       <c r="F20" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="62"/>
+      <c r="I20" s="67"/>
       <c r="J20" s="14" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="16" customHeight="1">
       <c r="B21" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="64"/>
+      <c r="D21" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="45"/>
       <c r="F21" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="61" t="s">
+      <c r="H21" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="62"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="14" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16" customHeight="1">
@@ -3672,25 +3660,25 @@
       <c r="C22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="64"/>
+      <c r="D22" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="45"/>
       <c r="F22" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="61" t="s">
+      <c r="H22" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="62"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="14" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="16" customHeight="1">
@@ -3700,25 +3688,25 @@
       <c r="C23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="64"/>
+      <c r="D23" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="45"/>
       <c r="F23" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="62"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="14" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="16" customHeight="1">
@@ -3728,25 +3716,25 @@
       <c r="C24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="64"/>
+      <c r="D24" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="45"/>
       <c r="F24" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="62"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="14" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16" customHeight="1">
@@ -3756,25 +3744,25 @@
       <c r="C25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="64"/>
+      <c r="D25" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="45"/>
       <c r="F25" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="62"/>
+      <c r="I25" s="67"/>
       <c r="J25" s="14" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="16" customHeight="1">
@@ -3784,25 +3772,25 @@
       <c r="C26" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="64"/>
+      <c r="D26" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="45"/>
       <c r="F26" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="62"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="16" customHeight="1">
@@ -3812,25 +3800,25 @@
       <c r="C27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="64"/>
+      <c r="D27" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="45"/>
       <c r="F27" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="62"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="16" customHeight="1">
@@ -3840,25 +3828,25 @@
       <c r="C28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="64"/>
+      <c r="D28" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="45"/>
       <c r="F28" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="62"/>
+      <c r="I28" s="67"/>
       <c r="J28" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="16" customHeight="1">
@@ -3868,25 +3856,25 @@
       <c r="C29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="64"/>
+      <c r="D29" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="45"/>
       <c r="F29" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="62"/>
+      <c r="I29" s="67"/>
       <c r="J29" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="16" customHeight="1">
@@ -3896,25 +3884,25 @@
       <c r="C30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="64"/>
+      <c r="D30" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="45"/>
       <c r="F30" s="14" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="62"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="16" customHeight="1">
@@ -3924,25 +3912,25 @@
       <c r="C31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="64"/>
+      <c r="D31" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="45"/>
       <c r="F31" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="62"/>
+      <c r="I31" s="67"/>
       <c r="J31" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="16" customHeight="1">
@@ -3952,25 +3940,25 @@
       <c r="C32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="14" t="s">
-        <v>95</v>
-      </c>
       <c r="G32" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="62"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="16" customHeight="1">
@@ -3980,25 +3968,25 @@
       <c r="C33" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="64"/>
+      <c r="D33" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="45"/>
       <c r="F33" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H33" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="62"/>
+      <c r="I33" s="67"/>
       <c r="J33" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="16" customHeight="1" thickBot="1">
@@ -4008,291 +3996,291 @@
       <c r="C34" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="66"/>
+      <c r="D34" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="76"/>
       <c r="F34" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H34" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="I34" s="54"/>
+      <c r="I34" s="78"/>
       <c r="J34" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="16" customHeight="1" thickBot="1"/>
     <row r="36" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B36" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D36" s="22"/>
-      <c r="E36" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57"/>
+      <c r="E36" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
       <c r="H36" s="22"/>
-      <c r="I36" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="J36" s="56"/>
-      <c r="K36" s="57"/>
+      <c r="I36" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="J36" s="69"/>
+      <c r="K36" s="70"/>
     </row>
     <row r="37" spans="2:11" ht="15" customHeight="1" thickBot="1">
       <c r="B37" s="24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="G37" s="57"/>
+        <v>106</v>
+      </c>
+      <c r="F37" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="70"/>
       <c r="H37" s="22"/>
       <c r="I37" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="J37" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="K37" s="57"/>
+        <v>106</v>
+      </c>
+      <c r="J37" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="K37" s="70"/>
     </row>
     <row r="38" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="B38" s="27" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="G38" s="59"/>
+        <v>97</v>
+      </c>
+      <c r="F38" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="72"/>
       <c r="H38" s="22"/>
       <c r="I38" s="30">
         <v>0</v>
       </c>
-      <c r="J38" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="K38" s="59"/>
+      <c r="J38" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="K38" s="72"/>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="B39" s="27" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46"/>
+        <v>123</v>
+      </c>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74"/>
       <c r="H39" s="22"/>
       <c r="I39" s="32">
         <v>1</v>
       </c>
-      <c r="J39" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="K39" s="46"/>
+      <c r="J39" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39" s="74"/>
     </row>
     <row r="40" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B40" s="33" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="46"/>
+        <v>107</v>
+      </c>
+      <c r="F40" s="73"/>
+      <c r="G40" s="74"/>
       <c r="H40" s="22"/>
       <c r="I40" s="32">
         <v>2</v>
       </c>
-      <c r="J40" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="K40" s="46"/>
+      <c r="J40" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="K40" s="74"/>
     </row>
     <row r="41" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B41" s="36"/>
       <c r="C41" s="37"/>
       <c r="E41" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="G41" s="46"/>
+        <v>108</v>
+      </c>
+      <c r="F41" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="74"/>
       <c r="H41" s="22"/>
       <c r="I41" s="32">
         <v>3</v>
       </c>
-      <c r="J41" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="K41" s="46"/>
+      <c r="J41" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="K41" s="74"/>
     </row>
     <row r="42" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B42" s="21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="G42" s="46"/>
+        <v>109</v>
+      </c>
+      <c r="F42" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="G42" s="74"/>
       <c r="H42" s="22"/>
       <c r="I42" s="32">
         <v>4</v>
       </c>
-      <c r="J42" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="K42" s="46"/>
+      <c r="J42" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="K42" s="74"/>
     </row>
     <row r="43" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="B43" s="24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="G43" s="46"/>
+        <v>110</v>
+      </c>
+      <c r="F43" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="G43" s="74"/>
       <c r="H43" s="22"/>
       <c r="I43" s="32">
         <v>5</v>
       </c>
-      <c r="J43" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="K43" s="46"/>
+      <c r="J43" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="K43" s="74"/>
     </row>
     <row r="44" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="B44" s="27" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="G44" s="46"/>
+        <v>111</v>
+      </c>
+      <c r="F44" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="G44" s="74"/>
       <c r="H44" s="22"/>
       <c r="I44" s="32">
         <v>6</v>
       </c>
-      <c r="J44" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="K44" s="46"/>
+      <c r="J44" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="K44" s="74"/>
     </row>
     <row r="45" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="B45" s="27" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="F45" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="G45" s="46"/>
+        <v>112</v>
+      </c>
+      <c r="F45" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="G45" s="74"/>
       <c r="H45" s="22"/>
       <c r="I45" s="32">
         <v>7</v>
       </c>
-      <c r="J45" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="K45" s="46"/>
+      <c r="J45" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="K45" s="74"/>
     </row>
     <row r="46" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B46" s="33" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F46" s="45"/>
-      <c r="G46" s="46"/>
+        <v>123</v>
+      </c>
+      <c r="F46" s="73"/>
+      <c r="G46" s="74"/>
       <c r="H46" s="22"/>
       <c r="I46" s="32">
         <v>8</v>
       </c>
-      <c r="J46" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="K46" s="46"/>
+      <c r="J46" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="K46" s="74"/>
     </row>
     <row r="47" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="E47" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" s="51"/>
-      <c r="G47" s="52"/>
+        <v>113</v>
+      </c>
+      <c r="F47" s="85"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="22"/>
       <c r="I47" s="32">
         <v>9</v>
       </c>
-      <c r="J47" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="K47" s="46"/>
+      <c r="J47" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="K47" s="74"/>
     </row>
     <row r="48" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="E48" s="36"/>
@@ -4300,100 +4288,100 @@
       <c r="G48" s="36"/>
       <c r="H48" s="36"/>
       <c r="I48" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="J48" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="K48" s="46"/>
+        <v>116</v>
+      </c>
+      <c r="J48" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="K48" s="74"/>
     </row>
     <row r="49" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="B49" s="40" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C49" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="60"/>
+      <c r="E49" s="80"/>
       <c r="F49" s="42" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="36"/>
       <c r="I49" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="J49" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="K49" s="46"/>
+        <v>117</v>
+      </c>
+      <c r="J49" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="K49" s="74"/>
     </row>
     <row r="50" spans="2:11" s="23" customFormat="1" ht="20" customHeight="1">
       <c r="B50" s="42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D50" s="37"/>
-      <c r="E50" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
+      <c r="E50" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
       <c r="H50" s="36"/>
       <c r="I50" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="J50" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="K50" s="46"/>
+        <v>118</v>
+      </c>
+      <c r="J50" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="K50" s="74"/>
     </row>
     <row r="51" spans="2:11" s="23" customFormat="1" ht="16">
       <c r="B51" s="42" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D51" s="37"/>
-      <c r="E51" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
+      <c r="E51" s="79" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
       <c r="H51" s="36"/>
       <c r="I51" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="J51" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="K51" s="48"/>
+        <v>123</v>
+      </c>
+      <c r="J51" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="K51" s="82"/>
     </row>
     <row r="52" spans="2:11" s="23" customFormat="1" ht="16" thickBot="1">
       <c r="B52" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="37"/>
+      <c r="E52" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
       <c r="H52" s="36"/>
       <c r="I52" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="J52" s="49"/>
-      <c r="K52" s="50"/>
+        <v>119</v>
+      </c>
+      <c r="J52" s="83"/>
+      <c r="K52" s="84"/>
     </row>
     <row r="53" spans="2:11" s="23" customFormat="1">
       <c r="B53" s="3"/>
@@ -4421,11 +4409,84 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="F45:G47"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="F38:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="F1:K1"/>
@@ -4442,84 +4503,11 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="F38:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="F45:G47"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Arch/TeC命令表.xlsx
+++ b/Doc/Arch/TeC命令表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ikenagahimena/Library/CloudStorage/OneDrive-独立行政法人国立高等専門学校機構/卒研/TeC7/Doc/Arch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A53ADCF-B998-BE46-9E15-5EECE8C2BAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029948A3-085A-B340-8029-CB9E51D04B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25280" windowHeight="15000" xr2:uid="{68F70C4F-7FF3-B64E-A555-E2BFC8105214}"/>
   </bookViews>
@@ -606,60 +606,6 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>（ジャンプ命令では，条件不成立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ダイレクト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>インデクスド）</t>
-    </r>
-    <rPh sb="0" eb="5">
-      <t>ジョウケンフセイリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
       <t>ニーモニック</t>
     </r>
     <phoneticPr fontId="1"/>
@@ -1927,6 +1873,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ命令での条件不成立によって変化しない。</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウケンフセイリツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1935,7 +1899,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>※ステート数：イミディエイト</t>
+      <t>※ステート数はイミディエイト</t>
     </r>
     <r>
       <rPr>
@@ -1975,14 +1939,16 @@
       </rPr>
       <t>インデクスド</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2504,7 +2470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2637,10 +2603,73 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2703,67 +2732,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3086,7 +3055,7 @@
   <dimension ref="B1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K1"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -3107,75 +3076,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" customHeight="1">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="46"/>
+      <c r="C1" s="67"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="F1" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="2:11" ht="17" customHeight="1" thickBot="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="1"/>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1">
+      <c r="B3" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1">
-      <c r="B3" s="64" t="s">
+      <c r="C3" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="D3" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="49" t="s">
+      <c r="H3" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="I3" s="80"/>
+      <c r="J3" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="64" t="s">
+      <c r="K3" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="K3" s="49" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="B4" s="65"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="56" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="50"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="16" customHeight="1">
       <c r="B5" s="6" t="s">
@@ -3184,25 +3153,25 @@
       <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="52"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="84"/>
       <c r="J5" s="8">
         <v>2</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="16" customHeight="1">
@@ -3212,25 +3181,25 @@
       <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="67"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16" customHeight="1">
@@ -3240,25 +3209,25 @@
       <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="45"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="67"/>
+      <c r="I7" s="62"/>
       <c r="J7" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="16" customHeight="1">
@@ -3268,25 +3237,25 @@
       <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="45"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="62"/>
+      <c r="J8" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="16" customHeight="1">
@@ -3296,25 +3265,25 @@
       <c r="C9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="45"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="67"/>
+      <c r="H9" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="62"/>
       <c r="J9" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="16" customHeight="1">
@@ -3324,22 +3293,22 @@
       <c r="C10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="45"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="I10" s="67"/>
+      <c r="H10" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="62"/>
       <c r="J10" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>95</v>
@@ -3352,25 +3321,25 @@
       <c r="C11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="45"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="67"/>
+      <c r="H11" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="62"/>
       <c r="J11" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="16" customHeight="1">
@@ -3380,25 +3349,25 @@
       <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="45"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" s="67"/>
+      <c r="H12" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="62"/>
       <c r="J12" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="16" customHeight="1">
@@ -3408,25 +3377,25 @@
       <c r="C13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="45"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="I13" s="67"/>
+      <c r="H13" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="62"/>
       <c r="J13" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="16" customHeight="1">
@@ -3436,25 +3405,25 @@
       <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="45"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" s="67"/>
+      <c r="H14" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="62"/>
       <c r="J14" s="11">
         <v>3</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="16" customHeight="1">
@@ -3464,25 +3433,25 @@
       <c r="C15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="45"/>
+      <c r="E15" s="64"/>
       <c r="F15" s="11" t="s">
         <v>79</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="I15" s="67"/>
+      <c r="H15" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="62"/>
       <c r="J15" s="11">
         <v>3</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="16" customHeight="1">
@@ -3492,25 +3461,25 @@
       <c r="C16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="45"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="11" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="I16" s="67"/>
+      <c r="H16" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="62"/>
       <c r="J16" s="11">
         <v>3</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="16" customHeight="1">
@@ -3520,25 +3489,25 @@
       <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="45"/>
+      <c r="E17" s="64"/>
       <c r="F17" s="11" t="s">
         <v>81</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="I17" s="67"/>
+      <c r="H17" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" s="62"/>
       <c r="J17" s="11">
         <v>3</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="16" customHeight="1">
@@ -3548,25 +3517,25 @@
       <c r="C18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="45"/>
+      <c r="E18" s="64"/>
       <c r="F18" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="66" t="s">
+      <c r="H18" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="67"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="16" customHeight="1">
@@ -3576,25 +3545,25 @@
       <c r="C19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="45"/>
+      <c r="E19" s="64"/>
       <c r="F19" s="11" t="s">
         <v>83</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="67"/>
+      <c r="I19" s="62"/>
       <c r="J19" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="16" customHeight="1">
@@ -3604,25 +3573,25 @@
       <c r="C20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="45"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="67"/>
+      <c r="I20" s="62"/>
       <c r="J20" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="16" customHeight="1">
@@ -3632,25 +3601,25 @@
       <c r="C21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="45"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="67"/>
+      <c r="I21" s="62"/>
       <c r="J21" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16" customHeight="1">
@@ -3660,25 +3629,25 @@
       <c r="C22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="45"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="67"/>
+      <c r="I22" s="62"/>
       <c r="J22" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="16" customHeight="1">
@@ -3688,25 +3657,25 @@
       <c r="C23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="45"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="11" t="s">
         <v>83</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="66" t="s">
+      <c r="H23" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="67"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="16" customHeight="1">
@@ -3716,25 +3685,25 @@
       <c r="C24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="45"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="67"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16" customHeight="1">
@@ -3744,25 +3713,25 @@
       <c r="C25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="64"/>
       <c r="F25" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="67"/>
+      <c r="I25" s="62"/>
       <c r="J25" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="16" customHeight="1">
@@ -3772,25 +3741,25 @@
       <c r="C26" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="45"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="66" t="s">
+      <c r="H26" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="67"/>
+      <c r="I26" s="62"/>
       <c r="J26" s="11">
         <v>4</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="16" customHeight="1">
@@ -3800,25 +3769,25 @@
       <c r="C27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="45"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="11" t="s">
         <v>81</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="67"/>
+      <c r="I27" s="62"/>
       <c r="J27" s="11">
         <v>3</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="16" customHeight="1">
@@ -3828,25 +3797,25 @@
       <c r="C28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="45"/>
+      <c r="E28" s="64"/>
       <c r="F28" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="67"/>
+      <c r="I28" s="62"/>
       <c r="J28" s="11">
         <v>3</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="16" customHeight="1">
@@ -3856,25 +3825,25 @@
       <c r="C29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="45"/>
+      <c r="E29" s="64"/>
       <c r="F29" s="11" t="s">
         <v>80</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="66" t="s">
+      <c r="H29" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="67"/>
+      <c r="I29" s="62"/>
       <c r="J29" s="11">
         <v>4</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="16" customHeight="1">
@@ -3884,25 +3853,25 @@
       <c r="C30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="45"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="14" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="66" t="s">
+      <c r="H30" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="67"/>
+      <c r="I30" s="62"/>
       <c r="J30" s="16">
         <v>3</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="16" customHeight="1">
@@ -3912,25 +3881,25 @@
       <c r="C31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="45"/>
+      <c r="E31" s="64"/>
       <c r="F31" s="14" t="s">
         <v>92</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="67"/>
+      <c r="I31" s="62"/>
       <c r="J31" s="11">
         <v>3</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="16" customHeight="1">
@@ -3940,25 +3909,25 @@
       <c r="C32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="45"/>
+      <c r="E32" s="64"/>
       <c r="F32" s="14" t="s">
         <v>93</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="66" t="s">
+      <c r="H32" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="67"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="11">
         <v>3</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="16" customHeight="1">
@@ -3968,25 +3937,25 @@
       <c r="C33" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="45"/>
+      <c r="E33" s="64"/>
       <c r="F33" s="14" t="s">
         <v>89</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="66" t="s">
+      <c r="H33" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="67"/>
+      <c r="I33" s="62"/>
       <c r="J33" s="11">
         <v>4</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="16" customHeight="1" thickBot="1">
@@ -3996,25 +3965,25 @@
       <c r="C34" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="76"/>
+      <c r="E34" s="66"/>
       <c r="F34" s="18" t="s">
         <v>89</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H34" s="77" t="s">
+      <c r="H34" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="I34" s="78"/>
+      <c r="I34" s="55"/>
       <c r="J34" s="19">
         <v>3</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="16" customHeight="1" thickBot="1"/>
@@ -4023,20 +3992,20 @@
         <v>69</v>
       </c>
       <c r="C36" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="68" t="s">
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="J36" s="69"/>
-      <c r="K36" s="70"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="58"/>
     </row>
     <row r="37" spans="2:11" ht="15" customHeight="1" thickBot="1">
       <c r="B37" s="24" t="s">
@@ -4049,18 +4018,18 @@
       <c r="E37" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="G37" s="70"/>
+      <c r="F37" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" s="58"/>
       <c r="H37" s="22"/>
       <c r="I37" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="J37" s="68" t="s">
+      <c r="J37" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="K37" s="70"/>
+      <c r="K37" s="58"/>
     </row>
     <row r="38" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="B38" s="27" t="s">
@@ -4073,18 +4042,18 @@
       <c r="E38" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="71" t="s">
+      <c r="F38" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="G38" s="72"/>
+      <c r="G38" s="60"/>
       <c r="H38" s="22"/>
       <c r="I38" s="30">
         <v>0</v>
       </c>
-      <c r="J38" s="71" t="s">
+      <c r="J38" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="72"/>
+      <c r="K38" s="60"/>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="B39" s="27" t="s">
@@ -4097,16 +4066,16 @@
       <c r="E39" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
       <c r="H39" s="22"/>
       <c r="I39" s="32">
         <v>1</v>
       </c>
-      <c r="J39" s="73" t="s">
+      <c r="J39" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="K39" s="74"/>
+      <c r="K39" s="47"/>
     </row>
     <row r="40" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B40" s="33" t="s">
@@ -4119,16 +4088,16 @@
       <c r="E40" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="73"/>
-      <c r="G40" s="74"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
       <c r="H40" s="22"/>
       <c r="I40" s="32">
         <v>2</v>
       </c>
-      <c r="J40" s="73" t="s">
+      <c r="J40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="K40" s="74"/>
+      <c r="K40" s="47"/>
     </row>
     <row r="41" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B41" s="36"/>
@@ -4136,151 +4105,151 @@
       <c r="E41" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="G41" s="74"/>
+      <c r="F41" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" s="47"/>
       <c r="H41" s="22"/>
       <c r="I41" s="32">
         <v>3</v>
       </c>
-      <c r="J41" s="73" t="s">
+      <c r="J41" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="K41" s="74"/>
+      <c r="K41" s="47"/>
     </row>
     <row r="42" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B42" s="21" t="s">
         <v>105</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="G42" s="74"/>
+      <c r="F42" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="47"/>
       <c r="H42" s="22"/>
       <c r="I42" s="32">
         <v>4</v>
       </c>
-      <c r="J42" s="73" t="s">
-        <v>182</v>
-      </c>
-      <c r="K42" s="74"/>
+      <c r="J42" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="K42" s="47"/>
     </row>
     <row r="43" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="B43" s="24" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F43" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="G43" s="74"/>
+      <c r="F43" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="G43" s="47"/>
       <c r="H43" s="22"/>
       <c r="I43" s="32">
         <v>5</v>
       </c>
-      <c r="J43" s="73" t="s">
+      <c r="J43" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="K43" s="74"/>
+      <c r="K43" s="47"/>
     </row>
     <row r="44" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="B44" s="27" t="s">
         <v>98</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="G44" s="74"/>
+      <c r="F44" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="G44" s="47"/>
       <c r="H44" s="22"/>
       <c r="I44" s="32">
         <v>6</v>
       </c>
-      <c r="J44" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="K44" s="74"/>
+      <c r="J44" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="K44" s="47"/>
     </row>
     <row r="45" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="B45" s="27" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F45" s="73" t="s">
-        <v>189</v>
-      </c>
-      <c r="G45" s="74"/>
+      <c r="F45" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" s="47"/>
       <c r="H45" s="22"/>
       <c r="I45" s="32">
         <v>7</v>
       </c>
-      <c r="J45" s="73" t="s">
+      <c r="J45" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="K45" s="74"/>
+      <c r="K45" s="47"/>
     </row>
     <row r="46" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B46" s="33" t="s">
         <v>100</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="73"/>
-      <c r="G46" s="74"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
       <c r="H46" s="22"/>
       <c r="I46" s="32">
         <v>8</v>
       </c>
-      <c r="J46" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="K46" s="74"/>
+      <c r="J46" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="K46" s="47"/>
     </row>
     <row r="47" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="E47" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F47" s="85"/>
-      <c r="G47" s="86"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
       <c r="H47" s="22"/>
       <c r="I47" s="32">
         <v>9</v>
       </c>
-      <c r="J47" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="K47" s="74"/>
+      <c r="J47" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="K47" s="47"/>
     </row>
     <row r="48" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="E48" s="36"/>
@@ -4290,10 +4259,10 @@
       <c r="I48" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="J48" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="K48" s="74"/>
+      <c r="J48" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="K48" s="47"/>
     </row>
     <row r="49" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="B49" s="40" t="s">
@@ -4302,10 +4271,10 @@
       <c r="C49" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="79" t="s">
+      <c r="D49" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="E49" s="80"/>
+      <c r="E49" s="45"/>
       <c r="F49" s="42" t="s">
         <v>136</v>
       </c>
@@ -4314,10 +4283,10 @@
       <c r="I49" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="J49" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="K49" s="74"/>
+      <c r="J49" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="K49" s="47"/>
     </row>
     <row r="50" spans="2:11" s="23" customFormat="1" ht="20" customHeight="1">
       <c r="B50" s="42" t="s">
@@ -4327,19 +4296,19 @@
         <v>129</v>
       </c>
       <c r="D50" s="37"/>
-      <c r="E50" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
+      <c r="E50" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="36"/>
       <c r="I50" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="J50" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="K50" s="74"/>
+      <c r="J50" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="K50" s="47"/>
     </row>
     <row r="51" spans="2:11" s="23" customFormat="1" ht="16">
       <c r="B51" s="42" t="s">
@@ -4349,19 +4318,19 @@
         <v>133</v>
       </c>
       <c r="D51" s="37"/>
-      <c r="E51" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
+      <c r="E51" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
       <c r="H51" s="36"/>
       <c r="I51" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="J51" s="81" t="s">
-        <v>198</v>
-      </c>
-      <c r="K51" s="82"/>
+      <c r="J51" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="K51" s="49"/>
     </row>
     <row r="52" spans="2:11" s="23" customFormat="1" ht="16" thickBot="1">
       <c r="B52" s="42" t="s">
@@ -4371,17 +4340,17 @@
         <v>134</v>
       </c>
       <c r="D52" s="37"/>
-      <c r="E52" s="79" t="s">
+      <c r="E52" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
       <c r="H52" s="36"/>
       <c r="I52" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="J52" s="83"/>
-      <c r="K52" s="84"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="51"/>
     </row>
     <row r="53" spans="2:11" s="23" customFormat="1">
       <c r="B53" s="3"/>
@@ -4409,38 +4378,57 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="F45:G47"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="F44:G44"/>
@@ -4457,57 +4445,38 @@
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="F38:G40"/>
     <mergeCell ref="F41:G41"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="F45:G47"/>
+    <mergeCell ref="J45:K45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Arch/TeC命令表.xlsx
+++ b/Doc/Arch/TeC命令表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ikenagahimena/Library/CloudStorage/OneDrive-独立行政法人国立高等専門学校機構/卒研/TeC7/Doc/Arch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029948A3-085A-B340-8029-CB9E51D04B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7B8AAD-B59A-5241-B94E-C45B50556B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25280" windowHeight="15000" xr2:uid="{68F70C4F-7FF3-B64E-A555-E2BFC8105214}"/>
   </bookViews>
@@ -1357,31 +1357,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">PC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> [SP++], EI</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
@@ -1948,6 +1923,31 @@
         <charset val="128"/>
       </rPr>
       <t>/</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FLAG ← [SP++],    PC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [SP++], EI</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -2066,7 +2066,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2464,13 +2464,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2734,6 +2778,54 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3054,8 +3146,8 @@
   </sheetPr>
   <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -3083,7 +3175,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
@@ -3096,7 +3188,7 @@
       <c r="C2" s="67"/>
       <c r="D2" s="1"/>
       <c r="F2" s="87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
@@ -3196,7 +3288,7 @@
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>147</v>
@@ -3224,7 +3316,7 @@
       </c>
       <c r="I7" s="62"/>
       <c r="J7" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>148</v>
@@ -3252,7 +3344,7 @@
       </c>
       <c r="I8" s="62"/>
       <c r="J8" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>150</v>
@@ -3280,7 +3372,7 @@
       </c>
       <c r="I9" s="62"/>
       <c r="J9" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>151</v>
@@ -3308,7 +3400,7 @@
       </c>
       <c r="I10" s="62"/>
       <c r="J10" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>95</v>
@@ -3336,7 +3428,7 @@
       </c>
       <c r="I11" s="62"/>
       <c r="J11" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>152</v>
@@ -3364,7 +3456,7 @@
       </c>
       <c r="I12" s="62"/>
       <c r="J12" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>153</v>
@@ -3392,7 +3484,7 @@
       </c>
       <c r="I13" s="62"/>
       <c r="J13" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>154</v>
@@ -3532,7 +3624,7 @@
       </c>
       <c r="I18" s="62"/>
       <c r="J18" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>158</v>
@@ -3560,7 +3652,7 @@
       </c>
       <c r="I19" s="62"/>
       <c r="J19" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>159</v>
@@ -3588,7 +3680,7 @@
       </c>
       <c r="I20" s="62"/>
       <c r="J20" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>160</v>
@@ -3616,7 +3708,7 @@
       </c>
       <c r="I21" s="62"/>
       <c r="J21" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>161</v>
@@ -3644,7 +3736,7 @@
       </c>
       <c r="I22" s="62"/>
       <c r="J22" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>162</v>
@@ -3672,7 +3764,7 @@
       </c>
       <c r="I23" s="62"/>
       <c r="J23" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>163</v>
@@ -3700,7 +3792,7 @@
       </c>
       <c r="I24" s="62"/>
       <c r="J24" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K24" s="15" t="s">
         <v>164</v>
@@ -3728,7 +3820,7 @@
       </c>
       <c r="I25" s="62"/>
       <c r="J25" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>165</v>
@@ -3931,438 +4023,438 @@
       </c>
     </row>
     <row r="33" spans="2:11" ht="16" customHeight="1">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="14" t="s">
+      <c r="E33" s="96"/>
+      <c r="F33" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="61" t="s">
+      <c r="H33" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="62"/>
-      <c r="J33" s="11">
+      <c r="I33" s="91"/>
+      <c r="J33" s="88">
         <v>4</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="102" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="16" customHeight="1">
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="103"/>
+    </row>
+    <row r="35" spans="2:11" ht="16" customHeight="1" thickBot="1">
+      <c r="B35" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="66"/>
+      <c r="F35" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="55"/>
+      <c r="J35" s="19">
+        <v>3</v>
+      </c>
+      <c r="K35" s="20" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="16" customHeight="1" thickBot="1">
-      <c r="B34" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="66"/>
-      <c r="F34" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="55"/>
-      <c r="J34" s="19">
-        <v>3</v>
-      </c>
-      <c r="K34" s="20" t="s">
+    <row r="36" spans="2:11" ht="16" customHeight="1" thickBot="1"/>
+    <row r="37" spans="2:11" ht="15" customHeight="1" thickBot="1">
+      <c r="B37" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" ht="16" customHeight="1" thickBot="1"/>
-    <row r="36" spans="2:11" ht="16" customHeight="1" thickBot="1">
-      <c r="B36" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="21" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="F36" s="57"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="J36" s="57"/>
-      <c r="K36" s="58"/>
-    </row>
-    <row r="37" spans="2:11" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="56" t="s">
-        <v>178</v>
-      </c>
+      <c r="F37" s="57"/>
       <c r="G37" s="58"/>
       <c r="H37" s="22"/>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="J37" s="57"/>
+      <c r="K37" s="58"/>
+    </row>
+    <row r="38" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B38" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="J37" s="56" t="s">
+      <c r="F38" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38" s="58"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="J38" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="K37" s="58"/>
-    </row>
-    <row r="38" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B38" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F38" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="60"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="30">
-        <v>0</v>
-      </c>
-      <c r="J38" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="K38" s="60"/>
+      <c r="K38" s="58"/>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="B39" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="60"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="30">
+        <v>0</v>
+      </c>
+      <c r="J39" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="K39" s="60"/>
+    </row>
+    <row r="40" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="B40" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C40" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="31" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="31" t="s">
         <v>123</v>
-      </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="32">
-        <v>1</v>
-      </c>
-      <c r="J39" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="K39" s="47"/>
-    </row>
-    <row r="40" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B40" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="35" t="s">
-        <v>107</v>
       </c>
       <c r="F40" s="46"/>
       <c r="G40" s="47"/>
       <c r="H40" s="22"/>
       <c r="I40" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K40" s="47"/>
     </row>
     <row r="41" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
-      <c r="E41" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="B41" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="46"/>
       <c r="G41" s="47"/>
       <c r="H41" s="22"/>
       <c r="I41" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" s="46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K41" s="47"/>
     </row>
     <row r="42" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B42" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" s="22"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
       <c r="E42" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G42" s="47"/>
       <c r="H42" s="22"/>
       <c r="I42" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J42" s="46" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="K42" s="47"/>
     </row>
-    <row r="43" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B43" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D43" s="26"/>
+    <row r="43" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B43" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="22"/>
       <c r="E43" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F43" s="46" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G43" s="47"/>
       <c r="H43" s="22"/>
       <c r="I43" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J43" s="46" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="K43" s="47"/>
     </row>
     <row r="44" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B44" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>184</v>
+      <c r="B44" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>181</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F44" s="46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G44" s="47"/>
       <c r="H44" s="22"/>
       <c r="I44" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J44" s="46" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="K44" s="47"/>
     </row>
     <row r="45" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="B45" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D45" s="26"/>
-      <c r="E45" s="38" t="s">
-        <v>112</v>
+      <c r="E45" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="F45" s="46" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G45" s="47"/>
       <c r="H45" s="22"/>
       <c r="I45" s="32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J45" s="46" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="K45" s="47"/>
     </row>
-    <row r="46" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B46" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>189</v>
+    <row r="46" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="B46" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>186</v>
       </c>
       <c r="D46" s="26"/>
-      <c r="E46" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" s="46"/>
+      <c r="E46" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>187</v>
+      </c>
       <c r="G46" s="47"/>
       <c r="H46" s="22"/>
       <c r="I46" s="32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J46" s="46" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K46" s="47"/>
     </row>
     <row r="47" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="E47" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
+      <c r="B47" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
       <c r="H47" s="22"/>
       <c r="I47" s="32">
+        <v>8</v>
+      </c>
+      <c r="J47" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K47" s="47"/>
+    </row>
+    <row r="48" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="E48" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="32">
         <v>9</v>
       </c>
-      <c r="J47" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="K47" s="47"/>
-    </row>
-    <row r="48" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="32" t="s">
-        <v>116</v>
-      </c>
       <c r="J48" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K48" s="47"/>
     </row>
     <row r="49" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B49" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="42" t="s">
-        <v>136</v>
-      </c>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
       <c r="G49" s="36"/>
       <c r="H49" s="36"/>
       <c r="I49" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J49" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K49" s="47"/>
     </row>
     <row r="50" spans="2:11" s="23" customFormat="1" ht="20" customHeight="1">
-      <c r="B50" s="42" t="s">
-        <v>128</v>
+      <c r="B50" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" s="37"/>
-      <c r="E50" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
+        <v>130</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="45"/>
+      <c r="F50" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="36"/>
       <c r="H50" s="36"/>
       <c r="I50" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J50" s="46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K50" s="47"/>
     </row>
-    <row r="51" spans="2:11" s="23" customFormat="1" ht="16">
+    <row r="51" spans="2:11" s="23" customFormat="1" ht="18">
       <c r="B51" s="42" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D51" s="37"/>
       <c r="E51" s="44" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F51" s="44"/>
       <c r="G51" s="44"/>
       <c r="H51" s="36"/>
-      <c r="I51" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="J51" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="K51" s="49"/>
-    </row>
-    <row r="52" spans="2:11" s="23" customFormat="1" ht="16" thickBot="1">
+      <c r="I51" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="J51" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="K51" s="47"/>
+    </row>
+    <row r="52" spans="2:11" s="23" customFormat="1" ht="16">
       <c r="B52" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D52" s="37"/>
       <c r="E52" s="44" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
       <c r="H52" s="36"/>
-      <c r="I52" s="43" t="s">
+      <c r="I52" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="J52" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K52" s="49"/>
+    </row>
+    <row r="53" spans="2:11" s="23" customFormat="1" ht="16" thickBot="1">
+      <c r="B53" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="37"/>
+      <c r="E53" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="J52" s="50"/>
-      <c r="K52" s="51"/>
-    </row>
-    <row r="53" spans="2:11" s="23" customFormat="1">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="2"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="51"/>
     </row>
     <row r="54" spans="2:11" s="23" customFormat="1">
       <c r="B54" s="3"/>
@@ -4377,7 +4469,14 @@
       <c r="K54" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
+  <mergeCells count="105">
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F33:F34"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="D6:E6"/>
@@ -4416,11 +4515,11 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="D33:E34"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D35:E35"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D30:E30"/>
@@ -4429,10 +4528,10 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
@@ -4442,9 +4541,8 @@
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="F38:G40"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F39:G41"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
@@ -4455,31 +4553,31 @@
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J40:K40"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="J44:K44"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="I37:K37"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="J39:K39"/>
-    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
     <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="J46:K46"/>
     <mergeCell ref="J47:K47"/>
     <mergeCell ref="J48:K48"/>
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="F45:G47"/>
-    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K53"/>
+    <mergeCell ref="F46:G48"/>
+    <mergeCell ref="J46:K46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Doc/Arch/TeC命令表.xlsx
+++ b/Doc/Arch/TeC命令表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ikenagahimena/Library/CloudStorage/OneDrive-独立行政法人国立高等専門学校機構/卒研/TeC7/Doc/Arch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigemura/sigemura/DOC/よく使うもの/20_GitHub/Org_newTeC/TeC7/Doc/Arch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7B8AAD-B59A-5241-B94E-C45B50556B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5D3B58-3AF4-5547-9EB7-5EF78333307C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25280" windowHeight="15000" xr2:uid="{68F70C4F-7FF3-B64E-A555-E2BFC8105214}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="201">
   <si>
     <t>OP</t>
     <phoneticPr fontId="1"/>
@@ -674,19 +674,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ステート数※</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
@@ -1856,99 +1843,52 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャンプ命令での条件不成立によって変化しない。</t>
-    <rPh sb="0" eb="4">
-      <t>ジョウケンフセイリツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※ステート数はイミディエイト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+    <t>○</t>
+  </si>
+  <si>
+    <r>
+      <t>FLAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Courier"/>
         <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ダイレクト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <charset val="1"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t>[SP++], PC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Courier"/>
         <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>インデクスド</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <charset val="1"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Courier"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FLAG ← [SP++],    PC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> [SP++], EI</t>
-    </r>
+      </rPr>
+      <t>[SP++]</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステート数</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1956,7 +1896,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2057,6 +1997,24 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2066,7 +2024,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2486,35 +2444,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2563,9 +2499,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2581,7 +2514,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2593,9 +2526,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2623,42 +2553,141 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2677,155 +2706,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2845,9 +2745,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2885,7 +2785,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2991,7 +2891,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3133,7 +3033,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3144,16 +3044,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K54"/>
+  <dimension ref="B1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="23" style="3" customWidth="1"/>
     <col min="4" max="4" width="1.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="5.140625" style="4" customWidth="1"/>
@@ -3161,82 +3061,78 @@
     <col min="7" max="7" width="11.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
     <col min="9" max="9" width="4.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="2.42578125" style="3" customWidth="1"/>
     <col min="13" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" customHeight="1">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="67"/>
+      <c r="C1" s="45"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+    </row>
+    <row r="2" spans="2:11" ht="17" customHeight="1" thickBot="1">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1">
+      <c r="B3" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3" s="91" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-    </row>
-    <row r="2" spans="2:11" ht="17" customHeight="1" thickBot="1">
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="1"/>
-      <c r="F2" s="87" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1">
-      <c r="B3" s="85" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" s="79" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="80"/>
-      <c r="J3" s="85" t="s">
+      <c r="K3" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="70" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="B4" s="86"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="77" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="78"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="71"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="16" customHeight="1">
       <c r="B5" s="6" t="s">
@@ -3245,25 +3141,25 @@
       <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="73"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="84"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="8">
         <v>2</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="16" customHeight="1">
@@ -3273,25 +3169,25 @@
       <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="64"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16" customHeight="1">
@@ -3301,25 +3197,25 @@
       <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="64"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="62"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="16" customHeight="1">
@@ -3329,25 +3225,25 @@
       <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="64"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="61" t="s">
+      <c r="H8" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="42"/>
+      <c r="J8" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="16" customHeight="1">
@@ -3357,25 +3253,25 @@
       <c r="C9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="64"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="I9" s="62"/>
+      <c r="H9" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" s="42"/>
       <c r="J9" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="16" customHeight="1">
@@ -3385,22 +3281,22 @@
       <c r="C10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="64"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="I10" s="62"/>
+      <c r="H10" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="42"/>
       <c r="J10" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>95</v>
@@ -3413,25 +3309,25 @@
       <c r="C11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="64"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" s="62"/>
+      <c r="H11" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="42"/>
       <c r="J11" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="16" customHeight="1">
@@ -3441,25 +3337,25 @@
       <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="64"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="I12" s="62"/>
+      <c r="H12" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="42"/>
       <c r="J12" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="16" customHeight="1">
@@ -3469,25 +3365,25 @@
       <c r="C13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="64"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="I13" s="62"/>
+      <c r="H13" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="42"/>
       <c r="J13" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="16" customHeight="1">
@@ -3497,25 +3393,25 @@
       <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="64"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="I14" s="62"/>
+      <c r="H14" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" s="42"/>
       <c r="J14" s="11">
         <v>3</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="16" customHeight="1">
@@ -3525,25 +3421,25 @@
       <c r="C15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="64"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="11" t="s">
         <v>79</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="I15" s="62"/>
+      <c r="H15" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="42"/>
       <c r="J15" s="11">
         <v>3</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="16" customHeight="1">
@@ -3553,25 +3449,25 @@
       <c r="C16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="64"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="11" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="I16" s="62"/>
+      <c r="H16" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="42"/>
       <c r="J16" s="11">
         <v>3</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="16" customHeight="1">
@@ -3581,25 +3477,25 @@
       <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="64"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="11" t="s">
         <v>81</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="I17" s="62"/>
+      <c r="H17" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" s="42"/>
       <c r="J17" s="11">
         <v>3</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="16" customHeight="1">
@@ -3609,25 +3505,25 @@
       <c r="C18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="64"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="61" t="s">
+      <c r="H18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="62"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="16" customHeight="1">
@@ -3637,25 +3533,25 @@
       <c r="C19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="64"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="11" t="s">
         <v>83</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="62"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="16" customHeight="1">
@@ -3665,25 +3561,25 @@
       <c r="C20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="64"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="62"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="16" customHeight="1">
@@ -3693,25 +3589,25 @@
       <c r="C21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="64"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="61" t="s">
+      <c r="H21" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="62"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16" customHeight="1">
@@ -3721,25 +3617,25 @@
       <c r="C22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="64"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="61" t="s">
+      <c r="H22" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="62"/>
+      <c r="I22" s="42"/>
       <c r="J22" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="16" customHeight="1">
@@ -3749,25 +3645,25 @@
       <c r="C23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="64"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="11" t="s">
         <v>83</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="62"/>
+      <c r="I23" s="42"/>
       <c r="J23" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="16" customHeight="1">
@@ -3777,25 +3673,25 @@
       <c r="C24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="64"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="62"/>
+      <c r="I24" s="42"/>
       <c r="J24" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16" customHeight="1">
@@ -3805,25 +3701,25 @@
       <c r="C25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="64"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="62"/>
+      <c r="I25" s="42"/>
       <c r="J25" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="16" customHeight="1">
@@ -3833,25 +3729,25 @@
       <c r="C26" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="64"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="61" t="s">
+      <c r="H26" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="62"/>
+      <c r="I26" s="42"/>
       <c r="J26" s="11">
         <v>4</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="16" customHeight="1">
@@ -3861,25 +3757,25 @@
       <c r="C27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="64"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="11" t="s">
         <v>81</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="61" t="s">
+      <c r="H27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="62"/>
+      <c r="I27" s="42"/>
       <c r="J27" s="11">
         <v>3</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="16" customHeight="1">
@@ -3889,25 +3785,25 @@
       <c r="C28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="64"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="62"/>
+      <c r="I28" s="42"/>
       <c r="J28" s="11">
         <v>3</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="16" customHeight="1">
@@ -3917,25 +3813,25 @@
       <c r="C29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="64"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="11" t="s">
         <v>80</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="61" t="s">
+      <c r="H29" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="62"/>
+      <c r="I29" s="42"/>
       <c r="J29" s="11">
         <v>4</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="16" customHeight="1">
@@ -3945,25 +3841,25 @@
       <c r="C30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="64"/>
+      <c r="E30" s="44"/>
       <c r="F30" s="14" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="H30" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="62"/>
-      <c r="J30" s="16">
+      <c r="I30" s="42"/>
+      <c r="J30" s="11">
         <v>3</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="16" customHeight="1">
@@ -3973,25 +3869,25 @@
       <c r="C31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="64"/>
+      <c r="E31" s="44"/>
       <c r="F31" s="14" t="s">
         <v>92</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="61" t="s">
+      <c r="H31" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="62"/>
+      <c r="I31" s="42"/>
       <c r="J31" s="11">
         <v>3</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="16" customHeight="1">
@@ -4001,487 +3897,519 @@
       <c r="C32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="64"/>
+      <c r="E32" s="44"/>
       <c r="F32" s="14" t="s">
         <v>93</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="61" t="s">
+      <c r="H32" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="62"/>
+      <c r="I32" s="42"/>
       <c r="J32" s="11">
         <v>3</v>
       </c>
       <c r="K32" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="16" customHeight="1">
+      <c r="B33" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="88"/>
+      <c r="F33" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="I33" s="89"/>
+      <c r="J33" s="39">
+        <v>4</v>
+      </c>
+      <c r="K33" s="90" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="16" customHeight="1" thickBot="1">
+      <c r="B34" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="70"/>
+      <c r="F34" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="76"/>
+      <c r="J34" s="18">
+        <v>3</v>
+      </c>
+      <c r="K34" s="19" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="16" customHeight="1">
-      <c r="B33" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="96"/>
-      <c r="F33" s="94" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="H33" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="91"/>
-      <c r="J33" s="88">
+    <row r="35" spans="2:11" ht="16" customHeight="1" thickBot="1"/>
+    <row r="36" spans="2:11" ht="15" customHeight="1" thickBot="1">
+      <c r="B36" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="J36" s="67"/>
+      <c r="K36" s="68"/>
+    </row>
+    <row r="37" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B37" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="68"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="K37" s="68"/>
+    </row>
+    <row r="38" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B38" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="74"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="28">
+        <v>0</v>
+      </c>
+      <c r="J38" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="K38" s="74"/>
+    </row>
+    <row r="39" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B39" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="71"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="30">
+        <v>1</v>
+      </c>
+      <c r="J39" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39" s="72"/>
+    </row>
+    <row r="40" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B40" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="71"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="30">
+        <v>2</v>
+      </c>
+      <c r="J40" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="K40" s="72"/>
+    </row>
+    <row r="41" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B41" s="21"/>
+      <c r="E41" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="72"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="30">
+        <v>3</v>
+      </c>
+      <c r="J41" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="K41" s="72"/>
+    </row>
+    <row r="42" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B42" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="72"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="30">
         <v>4</v>
       </c>
-      <c r="K33" s="102" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="16" customHeight="1">
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="103"/>
-    </row>
-    <row r="35" spans="2:11" ht="16" customHeight="1" thickBot="1">
-      <c r="B35" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="66"/>
-      <c r="F35" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H35" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="I35" s="55"/>
-      <c r="J35" s="19">
-        <v>3</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="16" customHeight="1" thickBot="1"/>
-    <row r="37" spans="2:11" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="F37" s="57"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="J37" s="57"/>
-      <c r="K37" s="58"/>
-    </row>
-    <row r="38" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B38" s="24" t="s">
+      <c r="J42" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="K42" s="72"/>
+    </row>
+    <row r="43" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B43" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="G38" s="58"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="J38" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="K38" s="58"/>
-    </row>
-    <row r="39" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B39" s="27" t="s">
+      <c r="C43" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" s="72"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="30">
+        <v>5</v>
+      </c>
+      <c r="J43" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="K43" s="72"/>
+    </row>
+    <row r="44" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B44" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="G39" s="60"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="30">
-        <v>0</v>
-      </c>
-      <c r="J39" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="K39" s="60"/>
-    </row>
-    <row r="40" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B40" s="27" t="s">
+      <c r="C44" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="G44" s="72"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="30">
+        <v>6</v>
+      </c>
+      <c r="J44" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="K44" s="72"/>
+    </row>
+    <row r="45" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B45" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="31" t="s">
+      <c r="C45" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" s="72"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="30">
+        <v>7</v>
+      </c>
+      <c r="J45" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="K45" s="72"/>
+    </row>
+    <row r="46" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B46" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="32">
-        <v>1</v>
-      </c>
-      <c r="J40" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="K40" s="47"/>
-    </row>
-    <row r="41" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B41" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="32">
-        <v>2</v>
-      </c>
-      <c r="J41" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="K41" s="47"/>
-    </row>
-    <row r="42" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
-      <c r="E42" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="G42" s="47"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="32">
-        <v>3</v>
-      </c>
-      <c r="J42" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="K42" s="47"/>
-    </row>
-    <row r="43" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B43" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="G43" s="47"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="32">
-        <v>4</v>
-      </c>
-      <c r="J43" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="K43" s="47"/>
-    </row>
-    <row r="44" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B44" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="G44" s="47"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="32">
-        <v>5</v>
-      </c>
-      <c r="J44" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="K44" s="47"/>
-    </row>
-    <row r="45" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B45" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="G45" s="47"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="32">
-        <v>6</v>
-      </c>
-      <c r="J45" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="K45" s="47"/>
-    </row>
-    <row r="46" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B46" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="G46" s="47"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="32">
-        <v>7</v>
-      </c>
-      <c r="J46" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="K46" s="47"/>
-    </row>
-    <row r="47" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B47" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="34" t="s">
+      <c r="F46" s="71"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="30">
+        <v>8</v>
+      </c>
+      <c r="J46" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="31" t="s">
+      <c r="K46" s="72"/>
+    </row>
+    <row r="47" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="E47" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="83"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="30">
+        <v>9</v>
+      </c>
+      <c r="J47" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="K47" s="72"/>
+    </row>
+    <row r="48" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="J48" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="K48" s="72"/>
+    </row>
+    <row r="49" spans="2:11" s="22" customFormat="1" ht="20" customHeight="1">
+      <c r="B49" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="78"/>
+      <c r="F49" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="J49" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="K49" s="72"/>
+    </row>
+    <row r="50" spans="2:11" s="22" customFormat="1" ht="18">
+      <c r="B50" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="J50" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="K50" s="72"/>
+    </row>
+    <row r="51" spans="2:11" s="22" customFormat="1" ht="16">
+      <c r="B51" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="32">
-        <v>8</v>
-      </c>
-      <c r="J47" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K47" s="47"/>
-    </row>
-    <row r="48" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="E48" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="32">
-        <v>9</v>
-      </c>
-      <c r="J48" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="K48" s="47"/>
-    </row>
-    <row r="49" spans="2:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="J49" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="K49" s="47"/>
-    </row>
-    <row r="50" spans="2:11" s="23" customFormat="1" ht="20" customHeight="1">
-      <c r="B50" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" s="45"/>
-      <c r="F50" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="J50" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="K50" s="47"/>
-    </row>
-    <row r="51" spans="2:11" s="23" customFormat="1" ht="18">
-      <c r="B51" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="J51" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="K51" s="47"/>
-    </row>
-    <row r="52" spans="2:11" s="23" customFormat="1" ht="16">
-      <c r="B52" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="44" t="s">
+      <c r="J51" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="J52" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K52" s="49"/>
-    </row>
-    <row r="53" spans="2:11" s="23" customFormat="1" ht="16" thickBot="1">
-      <c r="B53" s="42" t="s">
+      <c r="K51" s="80"/>
+    </row>
+    <row r="52" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
+      <c r="B52" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C52" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="37"/>
-      <c r="E53" s="44" t="s">
+      <c r="E52" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="43" t="s">
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="J53" s="50"/>
-      <c r="K53" s="51"/>
-    </row>
-    <row r="54" spans="2:11" s="23" customFormat="1">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="2"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="82"/>
+    </row>
+    <row r="53" spans="2:11" s="22" customFormat="1">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="105">
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
+  <mergeCells count="98">
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="F45:G47"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F38:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="F2:K2"/>
@@ -4495,6 +4423,11 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
@@ -4507,77 +4440,9 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="D33:E34"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F39:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K53"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="J46:K46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Doc/Arch/TeC命令表.xlsx
+++ b/Doc/Arch/TeC命令表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigemura/sigemura/DOC/よく使うもの/20_GitHub/Org_newTeC/TeC7/Doc/Arch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5D3B58-3AF4-5547-9EB7-5EF78333307C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD951D8-F916-A946-B229-CB08FAE7CB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25280" windowHeight="15000" xr2:uid="{68F70C4F-7FF3-B64E-A555-E2BFC8105214}"/>
   </bookViews>
@@ -2450,7 +2450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2574,16 +2574,85 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2648,81 +2717,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3046,8 +3040,8 @@
   </sheetPr>
   <dimension ref="B1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -3068,71 +3062,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" customHeight="1">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="45"/>
+      <c r="C1" s="68"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" spans="2:11" ht="17" customHeight="1" thickBot="1">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="1"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="49" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="91" t="s">
+      <c r="I3" s="82"/>
+      <c r="J3" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="72" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="B4" s="65"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="56" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="50"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="2:11" ht="16" customHeight="1">
       <c r="B5" s="6" t="s">
@@ -3141,20 +3135,20 @@
       <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="52"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="8">
         <v>2</v>
       </c>
@@ -3169,20 +3163,20 @@
       <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="65"/>
       <c r="F6" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="42"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="12" t="s">
         <v>196</v>
       </c>
@@ -3197,20 +3191,20 @@
       <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="42"/>
+      <c r="I7" s="61"/>
       <c r="J7" s="14" t="s">
         <v>197</v>
       </c>
@@ -3225,20 +3219,20 @@
       <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="42"/>
+      <c r="I8" s="61"/>
       <c r="J8" s="12" t="s">
         <v>196</v>
       </c>
@@ -3253,20 +3247,20 @@
       <c r="C9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="65"/>
       <c r="F9" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="42"/>
+      <c r="I9" s="61"/>
       <c r="J9" s="12" t="s">
         <v>196</v>
       </c>
@@ -3281,20 +3275,20 @@
       <c r="C10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="I10" s="42"/>
+      <c r="I10" s="61"/>
       <c r="J10" s="12" t="s">
         <v>196</v>
       </c>
@@ -3309,20 +3303,20 @@
       <c r="C11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="65"/>
       <c r="F11" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="42"/>
+      <c r="I11" s="61"/>
       <c r="J11" s="12" t="s">
         <v>196</v>
       </c>
@@ -3337,20 +3331,20 @@
       <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="44"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="I12" s="42"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="12" t="s">
         <v>196</v>
       </c>
@@ -3365,20 +3359,20 @@
       <c r="C13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="44"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="I13" s="42"/>
+      <c r="I13" s="61"/>
       <c r="J13" s="12" t="s">
         <v>196</v>
       </c>
@@ -3393,20 +3387,20 @@
       <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="44"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="I14" s="42"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="11">
         <v>3</v>
       </c>
@@ -3421,20 +3415,20 @@
       <c r="C15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="65"/>
       <c r="F15" s="11" t="s">
         <v>79</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="42"/>
+      <c r="I15" s="61"/>
       <c r="J15" s="11">
         <v>3</v>
       </c>
@@ -3449,20 +3443,20 @@
       <c r="C16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="44"/>
+      <c r="E16" s="65"/>
       <c r="F16" s="11" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="42"/>
+      <c r="I16" s="61"/>
       <c r="J16" s="11">
         <v>3</v>
       </c>
@@ -3477,20 +3471,20 @@
       <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="44"/>
+      <c r="E17" s="65"/>
       <c r="F17" s="11" t="s">
         <v>81</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="I17" s="42"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="11">
         <v>3</v>
       </c>
@@ -3505,20 +3499,20 @@
       <c r="C18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="44"/>
+      <c r="E18" s="65"/>
       <c r="F18" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="42"/>
+      <c r="I18" s="61"/>
       <c r="J18" s="14" t="s">
         <v>197</v>
       </c>
@@ -3533,20 +3527,20 @@
       <c r="C19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="44"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="11" t="s">
         <v>83</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="42"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="14" t="s">
         <v>197</v>
       </c>
@@ -3561,20 +3555,20 @@
       <c r="C20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="44"/>
+      <c r="E20" s="65"/>
       <c r="F20" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="42"/>
+      <c r="I20" s="61"/>
       <c r="J20" s="14" t="s">
         <v>197</v>
       </c>
@@ -3589,20 +3583,20 @@
       <c r="C21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="44"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="42"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="14" t="s">
         <v>197</v>
       </c>
@@ -3617,20 +3611,20 @@
       <c r="C22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="44"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="H22" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="42"/>
+      <c r="I22" s="61"/>
       <c r="J22" s="14" t="s">
         <v>196</v>
       </c>
@@ -3645,20 +3639,20 @@
       <c r="C23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="44"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="11" t="s">
         <v>83</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="42"/>
+      <c r="I23" s="61"/>
       <c r="J23" s="14" t="s">
         <v>197</v>
       </c>
@@ -3673,20 +3667,20 @@
       <c r="C24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="44"/>
+      <c r="E24" s="65"/>
       <c r="F24" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="42"/>
+      <c r="I24" s="61"/>
       <c r="J24" s="14" t="s">
         <v>197</v>
       </c>
@@ -3701,20 +3695,20 @@
       <c r="C25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="44"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="42"/>
+      <c r="I25" s="61"/>
       <c r="J25" s="14" t="s">
         <v>197</v>
       </c>
@@ -3729,20 +3723,20 @@
       <c r="C26" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="44"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="42"/>
+      <c r="I26" s="61"/>
       <c r="J26" s="11">
         <v>4</v>
       </c>
@@ -3757,20 +3751,20 @@
       <c r="C27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="44"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="11" t="s">
         <v>81</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="42"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="11">
         <v>3</v>
       </c>
@@ -3785,20 +3779,20 @@
       <c r="C28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="44"/>
+      <c r="E28" s="65"/>
       <c r="F28" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="42"/>
+      <c r="I28" s="61"/>
       <c r="J28" s="11">
         <v>3</v>
       </c>
@@ -3813,20 +3807,20 @@
       <c r="C29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="44"/>
+      <c r="E29" s="65"/>
       <c r="F29" s="11" t="s">
         <v>80</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="42"/>
+      <c r="I29" s="61"/>
       <c r="J29" s="11">
         <v>4</v>
       </c>
@@ -3841,20 +3835,20 @@
       <c r="C30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="44"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="14" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="42"/>
+      <c r="I30" s="61"/>
       <c r="J30" s="11">
         <v>3</v>
       </c>
@@ -3869,20 +3863,20 @@
       <c r="C31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="44"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="14" t="s">
         <v>92</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="42"/>
+      <c r="I31" s="61"/>
       <c r="J31" s="11">
         <v>3</v>
       </c>
@@ -3897,20 +3891,20 @@
       <c r="C32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="44"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="14" t="s">
         <v>93</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="42"/>
+      <c r="I32" s="61"/>
       <c r="J32" s="11">
         <v>3</v>
       </c>
@@ -3919,30 +3913,30 @@
       </c>
     </row>
     <row r="33" spans="2:11" ht="16" customHeight="1">
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="87" t="s">
+      <c r="D33" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="88"/>
+      <c r="E33" s="65"/>
       <c r="F33" s="40" t="s">
         <v>89</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="85" t="s">
+      <c r="H33" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="I33" s="89"/>
+      <c r="I33" s="63"/>
       <c r="J33" s="39">
         <v>4</v>
       </c>
-      <c r="K33" s="90" t="s">
+      <c r="K33" s="42" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3953,20 +3947,20 @@
       <c r="C34" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="69" t="s">
+      <c r="D34" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="70"/>
+      <c r="E34" s="67"/>
       <c r="F34" s="17" t="s">
         <v>89</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="H34" s="75" t="s">
+      <c r="H34" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="I34" s="76"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="18">
         <v>3</v>
       </c>
@@ -3983,17 +3977,17 @@
         <v>173</v>
       </c>
       <c r="D36" s="21"/>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="F36" s="67"/>
-      <c r="G36" s="68"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="57"/>
       <c r="H36" s="21"/>
-      <c r="I36" s="66" t="s">
+      <c r="I36" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="J36" s="67"/>
-      <c r="K36" s="68"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
     </row>
     <row r="37" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B37" s="23" t="s">
@@ -4005,18 +3999,18 @@
       <c r="E37" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="66" t="s">
+      <c r="F37" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="G37" s="68"/>
+      <c r="G37" s="57"/>
       <c r="H37" s="21"/>
       <c r="I37" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="J37" s="66" t="s">
+      <c r="J37" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="K37" s="68"/>
+      <c r="K37" s="57"/>
     </row>
     <row r="38" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B38" s="25" t="s">
@@ -4028,18 +4022,18 @@
       <c r="E38" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="73" t="s">
+      <c r="F38" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="G38" s="74"/>
+      <c r="G38" s="59"/>
       <c r="H38" s="21"/>
       <c r="I38" s="28">
         <v>0</v>
       </c>
-      <c r="J38" s="73" t="s">
+      <c r="J38" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="74"/>
+      <c r="K38" s="59"/>
     </row>
     <row r="39" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B39" s="25" t="s">
@@ -4051,16 +4045,16 @@
       <c r="E39" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="71"/>
-      <c r="G39" s="72"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="46"/>
       <c r="H39" s="21"/>
       <c r="I39" s="30">
         <v>1</v>
       </c>
-      <c r="J39" s="71" t="s">
+      <c r="J39" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="K39" s="72"/>
+      <c r="K39" s="46"/>
     </row>
     <row r="40" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B40" s="31" t="s">
@@ -4072,34 +4066,34 @@
       <c r="E40" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="71"/>
-      <c r="G40" s="72"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="46"/>
       <c r="H40" s="21"/>
       <c r="I40" s="30">
         <v>2</v>
       </c>
-      <c r="J40" s="71" t="s">
+      <c r="J40" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="K40" s="72"/>
+      <c r="K40" s="46"/>
     </row>
     <row r="41" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B41" s="21"/>
       <c r="E41" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="71" t="s">
+      <c r="F41" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="G41" s="72"/>
+      <c r="G41" s="46"/>
       <c r="H41" s="21"/>
       <c r="I41" s="30">
         <v>3</v>
       </c>
-      <c r="J41" s="71" t="s">
+      <c r="J41" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="K41" s="72"/>
+      <c r="K41" s="46"/>
     </row>
     <row r="42" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B42" s="20" t="s">
@@ -4112,18 +4106,18 @@
       <c r="E42" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="71" t="s">
+      <c r="F42" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="G42" s="72"/>
+      <c r="G42" s="46"/>
       <c r="H42" s="21"/>
       <c r="I42" s="30">
         <v>4</v>
       </c>
-      <c r="J42" s="71" t="s">
+      <c r="J42" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="K42" s="72"/>
+      <c r="K42" s="46"/>
     </row>
     <row r="43" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B43" s="23" t="s">
@@ -4135,18 +4129,18 @@
       <c r="E43" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="F43" s="71" t="s">
+      <c r="F43" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="G43" s="72"/>
+      <c r="G43" s="46"/>
       <c r="H43" s="21"/>
       <c r="I43" s="30">
         <v>5</v>
       </c>
-      <c r="J43" s="71" t="s">
+      <c r="J43" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="K43" s="72"/>
+      <c r="K43" s="46"/>
     </row>
     <row r="44" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B44" s="25" t="s">
@@ -4158,18 +4152,18 @@
       <c r="E44" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="71" t="s">
+      <c r="F44" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="G44" s="72"/>
+      <c r="G44" s="46"/>
       <c r="H44" s="21"/>
       <c r="I44" s="30">
         <v>6</v>
       </c>
-      <c r="J44" s="71" t="s">
+      <c r="J44" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="K44" s="72"/>
+      <c r="K44" s="46"/>
     </row>
     <row r="45" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B45" s="25" t="s">
@@ -4181,18 +4175,18 @@
       <c r="E45" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="F45" s="71" t="s">
+      <c r="F45" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="G45" s="72"/>
+      <c r="G45" s="46"/>
       <c r="H45" s="21"/>
       <c r="I45" s="30">
         <v>7</v>
       </c>
-      <c r="J45" s="71" t="s">
+      <c r="J45" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="K45" s="72"/>
+      <c r="K45" s="46"/>
     </row>
     <row r="46" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B46" s="31" t="s">
@@ -4204,31 +4198,31 @@
       <c r="E46" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="71"/>
-      <c r="G46" s="72"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
       <c r="H46" s="21"/>
       <c r="I46" s="30">
         <v>8</v>
       </c>
-      <c r="J46" s="71" t="s">
+      <c r="J46" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="K46" s="72"/>
+      <c r="K46" s="46"/>
     </row>
     <row r="47" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="E47" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="F47" s="83"/>
-      <c r="G47" s="84"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="52"/>
       <c r="H47" s="21"/>
       <c r="I47" s="30">
         <v>9</v>
       </c>
-      <c r="J47" s="71" t="s">
+      <c r="J47" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="K47" s="72"/>
+      <c r="K47" s="46"/>
     </row>
     <row r="48" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="E48" s="21"/>
@@ -4238,10 +4232,10 @@
       <c r="I48" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="J48" s="71" t="s">
+      <c r="J48" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="K48" s="72"/>
+      <c r="K48" s="46"/>
     </row>
     <row r="49" spans="2:11" s="22" customFormat="1" ht="20" customHeight="1">
       <c r="B49" s="36" t="s">
@@ -4250,10 +4244,10 @@
       <c r="C49" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="77" t="s">
+      <c r="D49" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="E49" s="78"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="36" t="s">
         <v>136</v>
       </c>
@@ -4262,10 +4256,10 @@
       <c r="I49" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="J49" s="71" t="s">
+      <c r="J49" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="K49" s="72"/>
+      <c r="K49" s="46"/>
     </row>
     <row r="50" spans="2:11" s="22" customFormat="1" ht="18">
       <c r="B50" s="36" t="s">
@@ -4274,19 +4268,19 @@
       <c r="C50" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="77" t="s">
+      <c r="E50" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
       <c r="H50" s="21"/>
       <c r="I50" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="J50" s="71" t="s">
+      <c r="J50" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="K50" s="72"/>
+      <c r="K50" s="46"/>
     </row>
     <row r="51" spans="2:11" s="22" customFormat="1" ht="16">
       <c r="B51" s="36" t="s">
@@ -4295,19 +4289,19 @@
       <c r="C51" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E51" s="77" t="s">
+      <c r="E51" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
       <c r="H51" s="21"/>
       <c r="I51" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J51" s="79" t="s">
+      <c r="J51" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="K51" s="80"/>
+      <c r="K51" s="48"/>
     </row>
     <row r="52" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
       <c r="B52" s="36" t="s">
@@ -4316,17 +4310,17 @@
       <c r="C52" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="77" t="s">
+      <c r="E52" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
       <c r="H52" s="21"/>
       <c r="I52" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="J52" s="81"/>
-      <c r="K52" s="82"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="50"/>
     </row>
     <row r="53" spans="2:11" s="22" customFormat="1">
       <c r="B53" s="3"/>
@@ -4341,39 +4335,58 @@
       <c r="K53" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="F45:G47"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
+  <mergeCells count="99">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="F44:G44"/>
@@ -4390,56 +4403,38 @@
     <mergeCell ref="F38:G40"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="F45:G47"/>
+    <mergeCell ref="J45:K45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Arch/TeC命令表.xlsx
+++ b/Doc/Arch/TeC命令表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigemura/sigemura/DOC/よく使うもの/20_GitHub/Org_newTeC/TeC7/Doc/Arch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD951D8-F916-A946-B229-CB08FAE7CB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D323B3-A2FE-A04E-AF56-4E1601CCDF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25280" windowHeight="15000" xr2:uid="{68F70C4F-7FF3-B64E-A555-E2BFC8105214}"/>
   </bookViews>
@@ -547,10 +547,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>b7:TX Ready, b6:Rx Ready</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TMR-Stat</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1846,12 +1842,20 @@
     <t>○</t>
   </si>
   <si>
-    <r>
-      <t>FLAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+    <t>ステート数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b7:Tx Ready, b6:Rx Ready</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FLAG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Courier"/>
         <family val="1"/>
@@ -1861,15 +1865,16 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Courier"/>
       </rPr>
-      <t>[SP++], PC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t xml:space="preserve"> [SP++],
+PC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Courier"/>
         <family val="1"/>
@@ -1879,16 +1884,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Courier"/>
       </rPr>
-      <t>[SP++]</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステート数</t>
+      <t xml:space="preserve"> [SP++]</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2004,12 +2005,12 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Courier"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Courier"/>
       <family val="1"/>
@@ -2450,7 +2451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2577,149 +2578,152 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3038,10 +3042,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K53"/>
+  <dimension ref="B1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -3062,71 +3066,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" customHeight="1">
-      <c r="B1" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="68"/>
+      <c r="B1" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="46"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="2:11" ht="17" customHeight="1" thickBot="1">
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="1"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="D3" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="72" t="s">
+      <c r="H3" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="I3" s="60"/>
+      <c r="J3" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="I3" s="82"/>
-      <c r="J3" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="K3" s="72" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="B4" s="88"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="79" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="80"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="73"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="2:11" ht="16" customHeight="1">
       <c r="B5" s="6" t="s">
@@ -3135,25 +3139,25 @@
       <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="75"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="86"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="8">
         <v>2</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="16" customHeight="1">
@@ -3163,25 +3167,25 @@
       <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="65"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16" customHeight="1">
@@ -3191,25 +3195,25 @@
       <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="65"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="61"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="16" customHeight="1">
@@ -3219,25 +3223,25 @@
       <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="65"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="45"/>
+      <c r="J8" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="I8" s="61"/>
-      <c r="J8" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="16" customHeight="1">
@@ -3247,25 +3251,25 @@
       <c r="C9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="65"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="I9" s="61"/>
+      <c r="H9" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="45"/>
       <c r="J9" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="16" customHeight="1">
@@ -3275,22 +3279,22 @@
       <c r="C10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="65"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" s="61"/>
+      <c r="H10" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="45"/>
       <c r="J10" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>95</v>
@@ -3303,25 +3307,25 @@
       <c r="C11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="65"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="I11" s="61"/>
+      <c r="H11" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="45"/>
       <c r="J11" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="16" customHeight="1">
@@ -3331,25 +3335,25 @@
       <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="65"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="I12" s="61"/>
+      <c r="H12" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="45"/>
       <c r="J12" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="16" customHeight="1">
@@ -3359,25 +3363,25 @@
       <c r="C13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="65"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="I13" s="61"/>
+      <c r="H13" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="45"/>
       <c r="J13" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="16" customHeight="1">
@@ -3387,25 +3391,25 @@
       <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="65"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="I14" s="61"/>
+      <c r="H14" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="45"/>
       <c r="J14" s="11">
         <v>3</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="16" customHeight="1">
@@ -3415,25 +3419,25 @@
       <c r="C15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="65"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="11" t="s">
         <v>79</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="61"/>
+      <c r="H15" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="45"/>
       <c r="J15" s="11">
         <v>3</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="16" customHeight="1">
@@ -3443,25 +3447,25 @@
       <c r="C16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="65"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="11" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="I16" s="61"/>
+      <c r="H16" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="45"/>
       <c r="J16" s="11">
         <v>3</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="16" customHeight="1">
@@ -3471,25 +3475,25 @@
       <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="65"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="11" t="s">
         <v>81</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="I17" s="61"/>
+      <c r="H17" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="45"/>
       <c r="J17" s="11">
         <v>3</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="16" customHeight="1">
@@ -3499,25 +3503,25 @@
       <c r="C18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="65"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="60" t="s">
+      <c r="H18" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="61"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="16" customHeight="1">
@@ -3527,25 +3531,25 @@
       <c r="C19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="65"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="11" t="s">
         <v>83</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="60" t="s">
+      <c r="H19" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="61"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="16" customHeight="1">
@@ -3555,25 +3559,25 @@
       <c r="C20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="65"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="61"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="16" customHeight="1">
@@ -3583,25 +3587,25 @@
       <c r="C21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="65"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="61"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16" customHeight="1">
@@ -3611,25 +3615,25 @@
       <c r="C22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="65"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="60" t="s">
+      <c r="H22" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="61"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="16" customHeight="1">
@@ -3639,25 +3643,25 @@
       <c r="C23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="65"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="11" t="s">
         <v>83</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="60" t="s">
+      <c r="H23" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="61"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="16" customHeight="1">
@@ -3667,25 +3671,25 @@
       <c r="C24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="65"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="60" t="s">
+      <c r="H24" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="61"/>
+      <c r="I24" s="45"/>
       <c r="J24" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16" customHeight="1">
@@ -3695,25 +3699,25 @@
       <c r="C25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="65"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="60" t="s">
+      <c r="H25" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="61"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="16" customHeight="1">
@@ -3723,25 +3727,25 @@
       <c r="C26" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="65"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="60" t="s">
+      <c r="H26" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="61"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="11">
         <v>4</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="16" customHeight="1">
@@ -3751,25 +3755,25 @@
       <c r="C27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="65"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="11" t="s">
         <v>81</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="60" t="s">
+      <c r="H27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="61"/>
+      <c r="I27" s="45"/>
       <c r="J27" s="11">
         <v>3</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="16" customHeight="1">
@@ -3779,25 +3783,25 @@
       <c r="C28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="65"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="60" t="s">
+      <c r="H28" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="61"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="11">
         <v>3</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="16" customHeight="1">
@@ -3807,25 +3811,25 @@
       <c r="C29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="65"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="11" t="s">
         <v>80</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="60" t="s">
+      <c r="H29" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="61"/>
+      <c r="I29" s="45"/>
       <c r="J29" s="11">
         <v>4</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="16" customHeight="1">
@@ -3835,25 +3839,25 @@
       <c r="C30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="65"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="14" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="60" t="s">
+      <c r="H30" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="61"/>
+      <c r="I30" s="45"/>
       <c r="J30" s="11">
         <v>3</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="16" customHeight="1">
@@ -3863,25 +3867,25 @@
       <c r="C31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="65"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="14" t="s">
         <v>92</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="60" t="s">
+      <c r="H31" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="61"/>
+      <c r="I31" s="45"/>
       <c r="J31" s="11">
         <v>3</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="16" customHeight="1">
@@ -3891,105 +3895,106 @@
       <c r="C32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="65"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="14" t="s">
         <v>93</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="60" t="s">
+      <c r="H32" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="61"/>
+      <c r="I32" s="45"/>
       <c r="J32" s="11">
         <v>3</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="16" customHeight="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="37" customHeight="1">
       <c r="B33" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="65"/>
+      <c r="E33" s="43"/>
       <c r="F33" s="40" t="s">
         <v>89</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="I33" s="63"/>
+      <c r="H33" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="I33" s="78"/>
       <c r="J33" s="39">
         <v>4</v>
       </c>
-      <c r="K33" s="42" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="16" customHeight="1" thickBot="1">
+      <c r="K33" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="N33" s="90"/>
+    </row>
+    <row r="34" spans="2:14" ht="16" customHeight="1" thickBot="1">
       <c r="B34" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="67"/>
+      <c r="E34" s="72"/>
       <c r="F34" s="17" t="s">
         <v>89</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="I34" s="54"/>
+      <c r="I34" s="80"/>
       <c r="J34" s="18">
         <v>3</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="16" customHeight="1" thickBot="1"/>
-    <row r="36" spans="2:11" ht="15" customHeight="1" thickBot="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="16" customHeight="1" thickBot="1"/>
+    <row r="36" spans="2:14" ht="15" customHeight="1" thickBot="1">
       <c r="B36" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="55" t="s">
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="J36" s="56"/>
-      <c r="K36" s="57"/>
-    </row>
-    <row r="37" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="J36" s="69"/>
+      <c r="K36" s="70"/>
+    </row>
+    <row r="37" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B37" s="23" t="s">
         <v>97</v>
       </c>
@@ -3999,20 +4004,20 @@
       <c r="E37" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="G37" s="57"/>
+      <c r="F37" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="70"/>
       <c r="H37" s="21"/>
       <c r="I37" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="J37" s="55" t="s">
+      <c r="J37" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="K37" s="57"/>
-    </row>
-    <row r="38" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="K37" s="70"/>
+    </row>
+    <row r="38" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B38" s="25" t="s">
         <v>98</v>
       </c>
@@ -4022,20 +4027,20 @@
       <c r="E38" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="58" t="s">
+      <c r="F38" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="G38" s="59"/>
+      <c r="G38" s="76"/>
       <c r="H38" s="21"/>
       <c r="I38" s="28">
         <v>0</v>
       </c>
-      <c r="J38" s="58" t="s">
+      <c r="J38" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="59"/>
-    </row>
-    <row r="39" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="K38" s="76"/>
+    </row>
+    <row r="39" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B39" s="25" t="s">
         <v>99</v>
       </c>
@@ -4045,18 +4050,18 @@
       <c r="E39" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74"/>
       <c r="H39" s="21"/>
       <c r="I39" s="30">
         <v>1</v>
       </c>
-      <c r="J39" s="45" t="s">
+      <c r="J39" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="K39" s="46"/>
-    </row>
-    <row r="40" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="K39" s="74"/>
+    </row>
+    <row r="40" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B40" s="31" t="s">
         <v>100</v>
       </c>
@@ -4066,165 +4071,165 @@
       <c r="E40" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="46"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="74"/>
       <c r="H40" s="21"/>
       <c r="I40" s="30">
         <v>2</v>
       </c>
-      <c r="J40" s="45" t="s">
+      <c r="J40" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="K40" s="46"/>
-    </row>
-    <row r="41" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="K40" s="74"/>
+    </row>
+    <row r="41" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B41" s="21"/>
       <c r="E41" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="46"/>
+      <c r="F41" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="74"/>
       <c r="H41" s="21"/>
       <c r="I41" s="30">
         <v>3</v>
       </c>
-      <c r="J41" s="45" t="s">
+      <c r="J41" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="K41" s="46"/>
-    </row>
-    <row r="42" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="K41" s="74"/>
+    </row>
+    <row r="42" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B42" s="20" t="s">
         <v>105</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="G42" s="46"/>
+      <c r="F42" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42" s="74"/>
       <c r="H42" s="21"/>
       <c r="I42" s="30">
         <v>4</v>
       </c>
-      <c r="J42" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="K42" s="46"/>
-    </row>
-    <row r="43" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="J42" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="K42" s="74"/>
+    </row>
+    <row r="43" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B43" s="23" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="F43" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="G43" s="46"/>
+      <c r="F43" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="74"/>
       <c r="H43" s="21"/>
       <c r="I43" s="30">
         <v>5</v>
       </c>
-      <c r="J43" s="45" t="s">
+      <c r="J43" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="K43" s="46"/>
-    </row>
-    <row r="44" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="K43" s="74"/>
+    </row>
+    <row r="44" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B44" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="G44" s="46"/>
+      <c r="F44" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" s="74"/>
       <c r="H44" s="21"/>
       <c r="I44" s="30">
         <v>6</v>
       </c>
-      <c r="J44" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="K44" s="46"/>
-    </row>
-    <row r="45" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="J44" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="K44" s="74"/>
+    </row>
+    <row r="45" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B45" s="25" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E45" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="F45" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="G45" s="46"/>
+      <c r="F45" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="G45" s="74"/>
       <c r="H45" s="21"/>
       <c r="I45" s="30">
         <v>7</v>
       </c>
-      <c r="J45" s="45" t="s">
+      <c r="J45" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="K45" s="46"/>
-    </row>
-    <row r="46" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="K45" s="74"/>
+    </row>
+    <row r="46" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B46" s="31" t="s">
         <v>100</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E46" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="45"/>
-      <c r="G46" s="46"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="74"/>
       <c r="H46" s="21"/>
       <c r="I46" s="30">
         <v>8</v>
       </c>
-      <c r="J46" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="K46" s="46"/>
-    </row>
-    <row r="47" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="J46" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="K46" s="74"/>
+    </row>
+    <row r="47" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="E47" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="F47" s="51"/>
-      <c r="G47" s="52"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="88"/>
       <c r="H47" s="21"/>
       <c r="I47" s="30">
         <v>9</v>
       </c>
-      <c r="J47" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="K47" s="46"/>
-    </row>
-    <row r="48" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="J47" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="K47" s="74"/>
+    </row>
+    <row r="48" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
@@ -4232,34 +4237,34 @@
       <c r="I48" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="J48" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="K48" s="46"/>
+      <c r="J48" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="K48" s="74"/>
     </row>
     <row r="49" spans="2:11" s="22" customFormat="1" ht="20" customHeight="1">
       <c r="B49" s="36" t="s">
         <v>127</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="82"/>
+      <c r="F49" s="36" t="s">
         <v>135</v>
-      </c>
-      <c r="E49" s="44"/>
-      <c r="F49" s="36" t="s">
-        <v>136</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="J49" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="K49" s="46"/>
+      <c r="J49" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="K49" s="74"/>
     </row>
     <row r="50" spans="2:11" s="22" customFormat="1" ht="18">
       <c r="B50" s="36" t="s">
@@ -4268,59 +4273,59 @@
       <c r="C50" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
+      <c r="E50" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
       <c r="H50" s="21"/>
       <c r="I50" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="J50" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="K50" s="46"/>
+      <c r="J50" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="K50" s="74"/>
     </row>
     <row r="51" spans="2:11" s="22" customFormat="1" ht="16">
       <c r="B51" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="E51" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
+        <v>132</v>
+      </c>
+      <c r="E51" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
       <c r="H51" s="21"/>
       <c r="I51" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J51" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="K51" s="48"/>
+      <c r="J51" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="K51" s="84"/>
     </row>
     <row r="52" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
       <c r="B52" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
+        <v>133</v>
+      </c>
+      <c r="E52" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
       <c r="H52" s="21"/>
       <c r="I52" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="J52" s="49"/>
-      <c r="K52" s="50"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="86"/>
     </row>
     <row r="53" spans="2:11" s="22" customFormat="1">
       <c r="B53" s="3"/>
@@ -4336,57 +4341,38 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="F45:G47"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="F44:G44"/>
@@ -4403,38 +4389,57 @@
     <mergeCell ref="F38:G40"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="F45:G47"/>
-    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Arch/TeC命令表.xlsx
+++ b/Doc/Arch/TeC命令表.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigemura/sigemura/DOC/よく使うもの/20_GitHub/Org_newTeC/TeC7/Doc/Arch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ikenagahimena/Library/CloudStorage/OneDrive-独立行政法人国立高等専門学校機構/卒研/TeC7/Doc/Arch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D323B3-A2FE-A04E-AF56-4E1601CCDF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790FA3C7-AEE8-8B45-BECB-735E31EC6F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="25280" windowHeight="15000" xr2:uid="{68F70C4F-7FF3-B64E-A555-E2BFC8105214}"/>
+    <workbookView xWindow="7080" yWindow="620" windowWidth="17440" windowHeight="15000" activeTab="1" xr2:uid="{68F70C4F-7FF3-B64E-A555-E2BFC8105214}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ケース貼り付け用" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ケース貼り付け用!$A$1:$V$30</definedName>
+  </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="269">
   <si>
     <t>OP</t>
     <phoneticPr fontId="1"/>
@@ -1892,12 +1896,370 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ニーモニック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <rPh sb="0" eb="2">
+      <t>メイレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1バイト</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2バイト</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラグ変化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No Opration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Conpare</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jump ou Carry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Call subroutine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何もしない</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　GR  ← [EA]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　EA  ← [GR]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GR ← GR + [EA]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GR ← GR - [EA]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GR ← GR &amp; [EA]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GR ← GR | [EA]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GR ← GR ^ [EA]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GR ← GR &lt;&lt; 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GR ← GR &gt;&gt; 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC ← EA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if Zero PC ← EA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if Carry PC ← EA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if Sign PC ← EA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[--SP] ← PC, PC ← EA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if !Zero PC ← EA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if !Carry PC ← EA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if !Sign PC ← EA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GR ← IO[P]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IO[P] ← GR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Return from Interrupt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[--SP] ← GR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GR ← [SP++]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割り込み許可</t>
+    <rPh sb="0" eb="1">
+      <t>ワリコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割り込み禁止</t>
+    <rPh sb="0" eb="1">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC ← [SP++]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC ← [SP++], STI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <rPh sb="0" eb="2">
+      <t>テイセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意味</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> XR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイレクトモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G1インデクスドモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G2インデクスドモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イミディエイトモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリマップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tmr割り込みベクタ</t>
+    <rPh sb="3" eb="4">
+      <t>ワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIO受信割り込みベクタ</t>
+    <rPh sb="3" eb="5">
+      <t>ジュシn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワリコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIO送信割り込みベクタ</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワリコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Console割り込みベクタ</t>
+    <rPh sb="7" eb="8">
+      <t>ワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROM(IPL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I/Oマップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data/sw/b0:Beep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data/sw/b0:Speaker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TMR現在値/TMR周期</t>
+    <rPh sb="3" eb="6">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空き/b0:Console STI</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC CH0/空き</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">アキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC CH1/空き</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">アキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC CH2/空き</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">アキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC CH3/空き</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">アキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空き/PIO-Ctrl</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空き/空き</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">アキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TMR:タイマー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TMR周期:75=1s</t>
+    <rPh sb="0" eb="2">
+      <t>シュウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>––––––––</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TeC7命令表</t>
+    <rPh sb="4" eb="7">
+      <t>メイレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2016,6 +2378,47 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック Light"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2025,7 +2428,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -2445,13 +2848,182 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2578,16 +3150,85 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2656,74 +3297,323 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2743,9 +3633,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2783,7 +3673,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2889,7 +3779,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3031,7 +3921,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3044,8 +3934,8 @@
   </sheetPr>
   <dimension ref="B1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -3066,71 +3956,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" customHeight="1">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="46"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="2:11" ht="17" customHeight="1" thickBot="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="1"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="67" t="s">
+      <c r="I3" s="83"/>
+      <c r="J3" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="73" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="B4" s="66"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="57" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="51"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="2:11" ht="16" customHeight="1">
       <c r="B5" s="6" t="s">
@@ -3139,20 +4029,20 @@
       <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="53"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="64"/>
+      <c r="I5" s="87"/>
       <c r="J5" s="8">
         <v>2</v>
       </c>
@@ -3167,20 +4057,20 @@
       <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="43"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="45"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="12" t="s">
         <v>195</v>
       </c>
@@ -3195,20 +4085,20 @@
       <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="43"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="45"/>
+      <c r="I7" s="62"/>
       <c r="J7" s="14" t="s">
         <v>196</v>
       </c>
@@ -3223,20 +4113,20 @@
       <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="I8" s="45"/>
+      <c r="I8" s="62"/>
       <c r="J8" s="12" t="s">
         <v>195</v>
       </c>
@@ -3251,20 +4141,20 @@
       <c r="C9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="43"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="I9" s="45"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="12" t="s">
         <v>195</v>
       </c>
@@ -3279,20 +4169,20 @@
       <c r="C10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="I10" s="45"/>
+      <c r="I10" s="62"/>
       <c r="J10" s="12" t="s">
         <v>195</v>
       </c>
@@ -3307,20 +4197,20 @@
       <c r="C11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="43"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="I11" s="45"/>
+      <c r="I11" s="62"/>
       <c r="J11" s="12" t="s">
         <v>195</v>
       </c>
@@ -3335,20 +4225,20 @@
       <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="43"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="I12" s="45"/>
+      <c r="I12" s="62"/>
       <c r="J12" s="12" t="s">
         <v>195</v>
       </c>
@@ -3363,20 +4253,20 @@
       <c r="C13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="43"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="I13" s="45"/>
+      <c r="I13" s="62"/>
       <c r="J13" s="12" t="s">
         <v>195</v>
       </c>
@@ -3391,20 +4281,20 @@
       <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="43"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="I14" s="45"/>
+      <c r="I14" s="62"/>
       <c r="J14" s="11">
         <v>3</v>
       </c>
@@ -3419,20 +4309,20 @@
       <c r="C15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="43"/>
+      <c r="E15" s="66"/>
       <c r="F15" s="11" t="s">
         <v>79</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="I15" s="45"/>
+      <c r="I15" s="62"/>
       <c r="J15" s="11">
         <v>3</v>
       </c>
@@ -3447,20 +4337,20 @@
       <c r="C16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="43"/>
+      <c r="E16" s="66"/>
       <c r="F16" s="11" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="I16" s="45"/>
+      <c r="I16" s="62"/>
       <c r="J16" s="11">
         <v>3</v>
       </c>
@@ -3475,20 +4365,20 @@
       <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="11" t="s">
         <v>81</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="I17" s="45"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="11">
         <v>3</v>
       </c>
@@ -3503,20 +4393,20 @@
       <c r="C18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="43"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="45"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="14" t="s">
         <v>196</v>
       </c>
@@ -3531,20 +4421,20 @@
       <c r="C19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="43"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="11" t="s">
         <v>83</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="45"/>
+      <c r="I19" s="62"/>
       <c r="J19" s="14" t="s">
         <v>196</v>
       </c>
@@ -3559,20 +4449,20 @@
       <c r="C20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="43"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="45"/>
+      <c r="I20" s="62"/>
       <c r="J20" s="14" t="s">
         <v>196</v>
       </c>
@@ -3587,20 +4477,20 @@
       <c r="C21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="43"/>
+      <c r="E21" s="66"/>
       <c r="F21" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="45"/>
+      <c r="I21" s="62"/>
       <c r="J21" s="14" t="s">
         <v>196</v>
       </c>
@@ -3615,20 +4505,20 @@
       <c r="C22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="43"/>
+      <c r="E22" s="66"/>
       <c r="F22" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="45"/>
+      <c r="I22" s="62"/>
       <c r="J22" s="14" t="s">
         <v>195</v>
       </c>
@@ -3643,20 +4533,20 @@
       <c r="C23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="43"/>
+      <c r="E23" s="66"/>
       <c r="F23" s="11" t="s">
         <v>83</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="44" t="s">
+      <c r="H23" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="45"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="14" t="s">
         <v>196</v>
       </c>
@@ -3671,20 +4561,20 @@
       <c r="C24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="43"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="44" t="s">
+      <c r="H24" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="45"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="14" t="s">
         <v>196</v>
       </c>
@@ -3699,20 +4589,20 @@
       <c r="C25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="44" t="s">
+      <c r="H25" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="45"/>
+      <c r="I25" s="62"/>
       <c r="J25" s="14" t="s">
         <v>196</v>
       </c>
@@ -3727,20 +4617,20 @@
       <c r="C26" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="44" t="s">
+      <c r="H26" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="45"/>
+      <c r="I26" s="62"/>
       <c r="J26" s="11">
         <v>4</v>
       </c>
@@ -3755,20 +4645,20 @@
       <c r="C27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="43"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="11" t="s">
         <v>81</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="44" t="s">
+      <c r="H27" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="45"/>
+      <c r="I27" s="62"/>
       <c r="J27" s="11">
         <v>3</v>
       </c>
@@ -3783,20 +4673,20 @@
       <c r="C28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="43"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="H28" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="45"/>
+      <c r="I28" s="62"/>
       <c r="J28" s="11">
         <v>3</v>
       </c>
@@ -3811,20 +4701,20 @@
       <c r="C29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="11" t="s">
         <v>80</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="H29" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="45"/>
+      <c r="I29" s="62"/>
       <c r="J29" s="11">
         <v>4</v>
       </c>
@@ -3839,20 +4729,20 @@
       <c r="C30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="66"/>
       <c r="F30" s="14" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="45"/>
+      <c r="I30" s="62"/>
       <c r="J30" s="11">
         <v>3</v>
       </c>
@@ -3867,20 +4757,20 @@
       <c r="C31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="66"/>
       <c r="F31" s="14" t="s">
         <v>92</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="44" t="s">
+      <c r="H31" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="45"/>
+      <c r="I31" s="62"/>
       <c r="J31" s="11">
         <v>3</v>
       </c>
@@ -3895,20 +4785,20 @@
       <c r="C32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="43"/>
+      <c r="E32" s="66"/>
       <c r="F32" s="14" t="s">
         <v>93</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="44" t="s">
+      <c r="H32" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="45"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="11">
         <v>3</v>
       </c>
@@ -3923,27 +4813,27 @@
       <c r="C33" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="43"/>
+      <c r="E33" s="66"/>
       <c r="F33" s="40" t="s">
         <v>89</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="77" t="s">
+      <c r="H33" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="I33" s="78"/>
+      <c r="I33" s="64"/>
       <c r="J33" s="39">
         <v>4</v>
       </c>
-      <c r="K33" s="89" t="s">
+      <c r="K33" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="N33" s="90"/>
+      <c r="N33" s="43"/>
     </row>
     <row r="34" spans="2:14" ht="16" customHeight="1" thickBot="1">
       <c r="B34" s="16" t="s">
@@ -3952,20 +4842,20 @@
       <c r="C34" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="D34" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="72"/>
+      <c r="E34" s="68"/>
       <c r="F34" s="17" t="s">
         <v>89</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="H34" s="79" t="s">
+      <c r="H34" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="I34" s="80"/>
+      <c r="I34" s="55"/>
       <c r="J34" s="18">
         <v>3</v>
       </c>
@@ -3982,17 +4872,17 @@
         <v>172</v>
       </c>
       <c r="D36" s="21"/>
-      <c r="E36" s="68" t="s">
+      <c r="E36" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
       <c r="H36" s="21"/>
-      <c r="I36" s="68" t="s">
+      <c r="I36" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="J36" s="69"/>
-      <c r="K36" s="70"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="58"/>
     </row>
     <row r="37" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B37" s="23" t="s">
@@ -4004,18 +4894,18 @@
       <c r="E37" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="68" t="s">
+      <c r="F37" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="G37" s="70"/>
+      <c r="G37" s="58"/>
       <c r="H37" s="21"/>
       <c r="I37" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="J37" s="68" t="s">
+      <c r="J37" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="K37" s="70"/>
+      <c r="K37" s="58"/>
     </row>
     <row r="38" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B38" s="25" t="s">
@@ -4027,18 +4917,18 @@
       <c r="E38" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="G38" s="76"/>
+      <c r="G38" s="60"/>
       <c r="H38" s="21"/>
       <c r="I38" s="28">
         <v>0</v>
       </c>
-      <c r="J38" s="75" t="s">
+      <c r="J38" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="76"/>
+      <c r="K38" s="60"/>
     </row>
     <row r="39" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B39" s="25" t="s">
@@ -4050,16 +4940,16 @@
       <c r="E39" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
       <c r="H39" s="21"/>
       <c r="I39" s="30">
         <v>1</v>
       </c>
-      <c r="J39" s="73" t="s">
+      <c r="J39" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="K39" s="74"/>
+      <c r="K39" s="47"/>
     </row>
     <row r="40" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B40" s="31" t="s">
@@ -4071,34 +4961,34 @@
       <c r="E40" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="73"/>
-      <c r="G40" s="74"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
       <c r="H40" s="21"/>
       <c r="I40" s="30">
         <v>2</v>
       </c>
-      <c r="J40" s="73" t="s">
+      <c r="J40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="K40" s="74"/>
+      <c r="K40" s="47"/>
     </row>
     <row r="41" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B41" s="21"/>
       <c r="E41" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="73" t="s">
+      <c r="F41" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="G41" s="74"/>
+      <c r="G41" s="47"/>
       <c r="H41" s="21"/>
       <c r="I41" s="30">
         <v>3</v>
       </c>
-      <c r="J41" s="73" t="s">
+      <c r="J41" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="K41" s="74"/>
+      <c r="K41" s="47"/>
     </row>
     <row r="42" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B42" s="20" t="s">
@@ -4111,18 +5001,18 @@
       <c r="E42" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="73" t="s">
+      <c r="F42" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="74"/>
+      <c r="G42" s="47"/>
       <c r="H42" s="21"/>
       <c r="I42" s="30">
         <v>4</v>
       </c>
-      <c r="J42" s="73" t="s">
+      <c r="J42" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="K42" s="74"/>
+      <c r="K42" s="47"/>
     </row>
     <row r="43" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B43" s="23" t="s">
@@ -4134,18 +5024,18 @@
       <c r="E43" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="F43" s="73" t="s">
+      <c r="F43" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="G43" s="74"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="21"/>
       <c r="I43" s="30">
         <v>5</v>
       </c>
-      <c r="J43" s="73" t="s">
+      <c r="J43" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="K43" s="74"/>
+      <c r="K43" s="47"/>
     </row>
     <row r="44" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B44" s="25" t="s">
@@ -4157,18 +5047,18 @@
       <c r="E44" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="73" t="s">
+      <c r="F44" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="G44" s="74"/>
+      <c r="G44" s="47"/>
       <c r="H44" s="21"/>
       <c r="I44" s="30">
         <v>6</v>
       </c>
-      <c r="J44" s="73" t="s">
+      <c r="J44" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="K44" s="74"/>
+      <c r="K44" s="47"/>
     </row>
     <row r="45" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B45" s="25" t="s">
@@ -4180,18 +5070,18 @@
       <c r="E45" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="F45" s="73" t="s">
+      <c r="F45" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="G45" s="74"/>
+      <c r="G45" s="47"/>
       <c r="H45" s="21"/>
       <c r="I45" s="30">
         <v>7</v>
       </c>
-      <c r="J45" s="73" t="s">
+      <c r="J45" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="K45" s="74"/>
+      <c r="K45" s="47"/>
     </row>
     <row r="46" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B46" s="31" t="s">
@@ -4203,31 +5093,31 @@
       <c r="E46" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="73"/>
-      <c r="G46" s="74"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
       <c r="H46" s="21"/>
       <c r="I46" s="30">
         <v>8</v>
       </c>
-      <c r="J46" s="73" t="s">
+      <c r="J46" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="K46" s="74"/>
+      <c r="K46" s="47"/>
     </row>
     <row r="47" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="E47" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="88"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
       <c r="H47" s="21"/>
       <c r="I47" s="30">
         <v>9</v>
       </c>
-      <c r="J47" s="73" t="s">
+      <c r="J47" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="K47" s="74"/>
+      <c r="K47" s="47"/>
     </row>
     <row r="48" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="E48" s="21"/>
@@ -4237,10 +5127,10 @@
       <c r="I48" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="J48" s="73" t="s">
+      <c r="J48" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="K48" s="74"/>
+      <c r="K48" s="47"/>
     </row>
     <row r="49" spans="2:11" s="22" customFormat="1" ht="20" customHeight="1">
       <c r="B49" s="36" t="s">
@@ -4249,10 +5139,10 @@
       <c r="C49" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="D49" s="81" t="s">
+      <c r="D49" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="82"/>
+      <c r="E49" s="45"/>
       <c r="F49" s="36" t="s">
         <v>135</v>
       </c>
@@ -4261,10 +5151,10 @@
       <c r="I49" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="J49" s="73" t="s">
+      <c r="J49" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="K49" s="74"/>
+      <c r="K49" s="47"/>
     </row>
     <row r="50" spans="2:11" s="22" customFormat="1" ht="18">
       <c r="B50" s="36" t="s">
@@ -4273,19 +5163,19 @@
       <c r="C50" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="81" t="s">
+      <c r="E50" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="21"/>
       <c r="I50" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="J50" s="73" t="s">
+      <c r="J50" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="K50" s="74"/>
+      <c r="K50" s="47"/>
     </row>
     <row r="51" spans="2:11" s="22" customFormat="1" ht="16">
       <c r="B51" s="36" t="s">
@@ -4294,19 +5184,19 @@
       <c r="C51" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="81" t="s">
+      <c r="E51" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
       <c r="H51" s="21"/>
       <c r="I51" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J51" s="83" t="s">
+      <c r="J51" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="K51" s="84"/>
+      <c r="K51" s="49"/>
     </row>
     <row r="52" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
       <c r="B52" s="36" t="s">
@@ -4315,17 +5205,17 @@
       <c r="C52" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E52" s="81" t="s">
+      <c r="E52" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
       <c r="H52" s="21"/>
       <c r="I52" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="J52" s="85"/>
-      <c r="K52" s="86"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="51"/>
     </row>
     <row r="53" spans="2:11" s="22" customFormat="1">
       <c r="B53" s="3"/>
@@ -4341,38 +5231,57 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="F45:G47"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="F44:G44"/>
@@ -4389,60 +5298,1360 @@
     <mergeCell ref="F38:G40"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="F45:G47"/>
+    <mergeCell ref="J45:K45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC88AA75-34B7-1B48-ADFB-242378A3B225}">
+  <dimension ref="B1:U29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="8" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" customWidth="1"/>
+    <col min="17" max="18" width="1.7109375" customWidth="1"/>
+    <col min="19" max="19" width="2.5703125" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" customWidth="1"/>
+    <col min="21" max="21" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21">
+      <c r="I1" s="196" t="s">
+        <v>268</v>
+      </c>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+    </row>
+    <row r="2" spans="2:21">
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+    </row>
+    <row r="3" spans="2:21" ht="20" customHeight="1">
+      <c r="B3" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="95"/>
+      <c r="F3" s="97" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="M3" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="N3" s="141"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="97" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q3" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="R3" s="187"/>
+      <c r="S3" s="153"/>
+      <c r="T3" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="U3" s="97" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="98"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="143"/>
+      <c r="O4" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="188"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="B5" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="104" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="110" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="107">
+        <v>2</v>
+      </c>
+      <c r="I5" s="104" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="148" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="149"/>
+      <c r="O5" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="128" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q5" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="167"/>
+      <c r="S5" s="166"/>
+      <c r="T5" s="108">
+        <v>3</v>
+      </c>
+      <c r="U5" s="126" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="106">
+        <v>4</v>
+      </c>
+      <c r="I6" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="130" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="144" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="145"/>
+      <c r="O6" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="110" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q6" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="167"/>
+      <c r="S6" s="166"/>
+      <c r="T6" s="107">
+        <v>4</v>
+      </c>
+      <c r="U6" s="114" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="107">
+        <v>3</v>
+      </c>
+      <c r="I7" s="104" t="s">
+        <v>215</v>
+      </c>
+      <c r="K7" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="148" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="149"/>
+      <c r="O7" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="131" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q7" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="167"/>
+      <c r="S7" s="166"/>
+      <c r="T7" s="106">
+        <v>3</v>
+      </c>
+      <c r="U7" s="100" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="H8" s="106">
+        <v>4</v>
+      </c>
+      <c r="I8" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="K8" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="146" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="147"/>
+      <c r="O8" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" s="110" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q8" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="167"/>
+      <c r="S8" s="166"/>
+      <c r="T8" s="107">
+        <v>3</v>
+      </c>
+      <c r="U8" s="104" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="H9" s="107">
+        <v>4</v>
+      </c>
+      <c r="I9" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="K9" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="150" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="151"/>
+      <c r="O9" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" s="131" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q9" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="167"/>
+      <c r="S9" s="166"/>
+      <c r="T9" s="106">
+        <v>3</v>
+      </c>
+      <c r="U9" s="100" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="H10" s="107">
+        <v>4</v>
+      </c>
+      <c r="I10" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="104" t="s">
+        <v>233</v>
+      </c>
+      <c r="M10" s="146" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="147"/>
+      <c r="O10" s="105" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="110" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q10" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="167"/>
+      <c r="S10" s="166"/>
+      <c r="T10" s="107">
+        <v>4</v>
+      </c>
+      <c r="U10" s="104" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="107">
+        <v>4</v>
+      </c>
+      <c r="I11" s="117" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="151"/>
+      <c r="O11" s="123" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="129" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q11" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="167"/>
+      <c r="S11" s="166"/>
+      <c r="T11" s="109">
+        <v>3</v>
+      </c>
+      <c r="U11" s="101" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="106">
+        <v>4</v>
+      </c>
+      <c r="I12" s="117" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="107">
+        <v>4</v>
+      </c>
+      <c r="I13" s="117" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="137" t="s">
+        <v>241</v>
+      </c>
+      <c r="M13" s="163"/>
+      <c r="N13" s="171" t="s">
+        <v>247</v>
+      </c>
+      <c r="O13" s="172"/>
+      <c r="P13" s="172"/>
+      <c r="Q13" s="173"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="157" t="s">
+        <v>254</v>
+      </c>
+      <c r="T13" s="156"/>
+      <c r="U13" s="158"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="107" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="H14" s="107">
+        <v>3</v>
+      </c>
+      <c r="I14" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="138" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="135"/>
+      <c r="N14" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="178" t="s">
+        <v>248</v>
+      </c>
+      <c r="P14" s="179"/>
+      <c r="Q14" s="180"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="171" t="s">
+        <v>106</v>
+      </c>
+      <c r="T14" s="173"/>
+      <c r="U14" s="108" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="107" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="106">
+        <v>3</v>
+      </c>
+      <c r="I15" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="K15" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="135" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" s="135"/>
+      <c r="N15" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="O15" s="168" t="s">
+        <v>114</v>
+      </c>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="160"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="165">
+        <v>0</v>
+      </c>
+      <c r="T15" s="166"/>
+      <c r="U15" s="107" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="107" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="107">
+        <v>3</v>
+      </c>
+      <c r="I16" s="104" t="s">
+        <v>222</v>
+      </c>
+      <c r="K16" s="133" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="138" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="135"/>
+      <c r="N16" s="127" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" s="168"/>
+      <c r="P16" s="168"/>
+      <c r="Q16" s="160"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="159">
+        <v>1</v>
+      </c>
+      <c r="T16" s="160"/>
+      <c r="U16" s="163" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="107" t="s">
+        <v>267</v>
+      </c>
+      <c r="G17" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="106">
+        <v>3</v>
+      </c>
+      <c r="I17" s="104" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" s="125" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="135"/>
+      <c r="N17" s="127" t="s">
+        <v>107</v>
+      </c>
+      <c r="O17" s="168"/>
+      <c r="P17" s="168"/>
+      <c r="Q17" s="160"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="157">
+        <v>2</v>
+      </c>
+      <c r="T17" s="158"/>
+      <c r="U17" s="134" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="107">
+        <v>3</v>
+      </c>
+      <c r="I18" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="M18" s="135"/>
+      <c r="N18" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" s="181" t="s">
+        <v>249</v>
+      </c>
+      <c r="P18" s="182"/>
+      <c r="Q18" s="183"/>
+      <c r="R18" s="140"/>
+      <c r="S18" s="165">
+        <v>3</v>
+      </c>
+      <c r="T18" s="166"/>
+      <c r="U18" s="137" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="106">
+        <v>3</v>
+      </c>
+      <c r="I19" s="100" t="s">
+        <v>224</v>
+      </c>
+      <c r="K19" s="126" t="s">
+        <v>242</v>
+      </c>
+      <c r="L19" s="126" t="s">
+        <v>241</v>
+      </c>
+      <c r="M19" s="170"/>
+      <c r="N19" s="127" t="s">
+        <v>109</v>
+      </c>
+      <c r="O19" s="152" t="s">
+        <v>250</v>
+      </c>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="174"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="161">
+        <v>4</v>
+      </c>
+      <c r="T19" s="162"/>
+      <c r="U19" s="164" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="107">
+        <v>3</v>
+      </c>
+      <c r="I20" s="104" t="s">
+        <v>225</v>
+      </c>
+      <c r="K20" s="133" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="104" t="s">
+        <v>243</v>
+      </c>
+      <c r="M20" s="135"/>
+      <c r="N20" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="O20" s="184" t="s">
+        <v>251</v>
+      </c>
+      <c r="P20" s="185"/>
+      <c r="Q20" s="186"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="159">
+        <v>5</v>
+      </c>
+      <c r="T20" s="160"/>
+      <c r="U20" s="163" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="106">
+        <v>3</v>
+      </c>
+      <c r="I21" s="100" t="s">
+        <v>226</v>
+      </c>
+      <c r="K21" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="100" t="s">
+        <v>244</v>
+      </c>
+      <c r="M21" s="135"/>
+      <c r="N21" s="127" t="s">
+        <v>111</v>
+      </c>
+      <c r="O21" s="169" t="s">
+        <v>252</v>
+      </c>
+      <c r="P21" s="169"/>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="165">
+        <v>6</v>
+      </c>
+      <c r="T21" s="166"/>
+      <c r="U21" s="107" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="104" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="107">
+        <v>4</v>
+      </c>
+      <c r="I22" s="104" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" s="133" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="M22" s="135"/>
+      <c r="N22" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="O22" s="156" t="s">
+        <v>253</v>
+      </c>
+      <c r="P22" s="156"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="159">
+        <v>7</v>
+      </c>
+      <c r="T22" s="160"/>
+      <c r="U22" s="163" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="106">
+        <v>3</v>
+      </c>
+      <c r="I23" s="100" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" s="125" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="M23" s="135"/>
+      <c r="N23" s="127" t="s">
+        <v>123</v>
+      </c>
+      <c r="O23" s="168"/>
+      <c r="P23" s="168"/>
+      <c r="Q23" s="160"/>
+      <c r="R23" s="132"/>
+      <c r="S23" s="165">
+        <v>8</v>
+      </c>
+      <c r="T23" s="166"/>
+      <c r="U23" s="107" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="107">
+        <v>3</v>
+      </c>
+      <c r="I24" s="119" t="s">
+        <v>229</v>
+      </c>
+      <c r="M24" s="135"/>
+      <c r="N24" s="177" t="s">
+        <v>113</v>
+      </c>
+      <c r="O24" s="176"/>
+      <c r="P24" s="176"/>
+      <c r="Q24" s="162"/>
+      <c r="R24" s="132"/>
+      <c r="S24" s="159">
+        <v>9</v>
+      </c>
+      <c r="T24" s="160"/>
+      <c r="U24" s="163" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="106">
+        <v>3</v>
+      </c>
+      <c r="I25" s="118" t="s">
+        <v>230</v>
+      </c>
+      <c r="S25" s="165" t="s">
+        <v>116</v>
+      </c>
+      <c r="T25" s="166"/>
+      <c r="U25" s="107" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="107">
+        <v>4</v>
+      </c>
+      <c r="I26" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="K26" s="191" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" s="192" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" s="193" t="s">
+        <v>134</v>
+      </c>
+      <c r="N26" s="193"/>
+      <c r="O26" s="191" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" s="194"/>
+      <c r="S26" s="159" t="s">
+        <v>117</v>
+      </c>
+      <c r="T26" s="160"/>
+      <c r="U26" s="163" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="107">
+        <v>3</v>
+      </c>
+      <c r="I27" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="K27" s="191" t="s">
+        <v>128</v>
+      </c>
+      <c r="L27" s="192" t="s">
+        <v>129</v>
+      </c>
+      <c r="M27" s="195" t="s">
+        <v>265</v>
+      </c>
+      <c r="N27" s="195"/>
+      <c r="O27" s="195"/>
+      <c r="P27" s="195"/>
+      <c r="S27" s="165" t="s">
+        <v>118</v>
+      </c>
+      <c r="T27" s="166"/>
+      <c r="U27" s="107" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="K28" s="191" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" s="192" t="s">
+        <v>132</v>
+      </c>
+      <c r="M28" s="195" t="s">
+        <v>266</v>
+      </c>
+      <c r="N28" s="195"/>
+      <c r="O28" s="195"/>
+      <c r="P28" s="195"/>
+      <c r="S28" s="159" t="s">
+        <v>123</v>
+      </c>
+      <c r="T28" s="160"/>
+      <c r="U28" s="160" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="K29" s="191" t="s">
+        <v>131</v>
+      </c>
+      <c r="L29" s="192" t="s">
+        <v>133</v>
+      </c>
+      <c r="M29" s="195" t="s">
+        <v>136</v>
+      </c>
+      <c r="N29" s="195"/>
+      <c r="O29" s="195"/>
+      <c r="P29" s="195"/>
+      <c r="S29" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="T29" s="190"/>
+      <c r="U29" s="162"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="Q3:S4"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="O15:Q17"/>
+    <mergeCell ref="O22:Q24"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="42" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
 </file>
--- a/Doc/Arch/TeC命令表.xlsx
+++ b/Doc/Arch/TeC命令表.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ikenagahimena/Library/CloudStorage/OneDrive-独立行政法人国立高等専門学校機構/卒研/TeC7/Doc/Arch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigemura/sigemura/DOC/よく使うもの/20_GitHub/Org_TeC7new/TeC7/Doc/Arch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790FA3C7-AEE8-8B45-BECB-735E31EC6F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04554A30-C95F-2A4C-8C33-7E0F757B9FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="620" windowWidth="17440" windowHeight="15000" activeTab="1" xr2:uid="{68F70C4F-7FF3-B64E-A555-E2BFC8105214}"/>
+    <workbookView xWindow="420" yWindow="500" windowWidth="25120" windowHeight="15000" xr2:uid="{68F70C4F-7FF3-B64E-A555-E2BFC8105214}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="教科書掲載用" sheetId="1" r:id="rId1"/>
     <sheet name="ケース貼り付け用" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ケース貼り付け用!$A$1:$V$30</definedName>
-  </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="281">
   <si>
     <t>OP</t>
     <phoneticPr fontId="1"/>
@@ -536,42 +533,6 @@
   </si>
   <si>
     <t>PIO-Input/PIO-Output</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SIO-Stat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SIO-Ctrl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b7:Tx STI, b6:Rx STI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TMR-Stat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TMR-Ctrl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b7:Interrupt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b7:STI, b0:Enable</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PIO-Ctrl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b7:out, b3-0:data</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1732,22 +1693,6 @@
   </si>
   <si>
     <r>
-      <t>TMR:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>タイマー</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -1773,34 +1718,6 @@
   </si>
   <si>
     <r>
-      <t>TMR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>周期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="1"/>
-      </rPr>
-      <t>:75=1s</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>シュウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -1850,10 +1767,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>b7:Tx Ready, b6:Rx Ready</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">FLAG </t>
     </r>
@@ -1937,10 +1850,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Conpare</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Jump ou Carry</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2040,14 +1949,6 @@
   </si>
   <si>
     <t>Return from Interrupt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[--SP] ← GR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GR ← [SP++]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2072,10 +1973,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PC ← [SP++], STI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>停止</t>
     <rPh sb="0" eb="2">
       <t>テイセィ</t>
@@ -2233,24 +2130,201 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TMR:タイマー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TMR周期:75=1s</t>
+    <t>––––––––</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TeC7命令表</t>
+    <rPh sb="4" eb="7">
+      <t>メイレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>––––––––</t>
+  </si>
+  <si>
+    <t>PUSH</t>
+  </si>
+  <si>
+    <t>Push Register</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>GR 00</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>[--SP] ← GR</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>Pop Register</t>
+  </si>
+  <si>
+    <t>GR 10</t>
+  </si>
+  <si>
+    <t>GR ← [SP++]</t>
+  </si>
+  <si>
+    <t>FLAG ← [SP++],
+PC ← [SP++]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver.4.0(2025.1.24)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIO-Stat: b7:Tx Ready, b6:Rx Ready</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIO-Ctrl: b7:Tx STI, b6:Rx STI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TMR-Stat: b7:Interrupt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TMR-Ctrl: b7:STI, b0:Enable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIO-Ctrl: b7:out, b3-0:data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STI: Set Interrupt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data-sw/b0:Beep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data-sw/b0:Speaker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TMR: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タイマー</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>TMR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>周期</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>: 75=1s</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>シュウキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>––––––––</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TeC7命令表</t>
-    <rPh sb="4" eb="7">
-      <t>メイレイ</t>
+    <t>SIO-Stat:b7:Tx Ready,b6:Rx Ready</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIO-Ctrl:b7:Tx STI,b6:Rx STI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TMR-Stat:b7:Interrupt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TMR-Ctrl:b7:STI,b0:Enable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIO-Ctrl:b7:out,b3-0:data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>TMR:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タイマー</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>TMR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>周期</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>:75=1s</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シュウキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2259,7 +2333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2341,19 +2415,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Courier"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Courier"/>
@@ -2412,12 +2473,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック (本文)"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="游ゴシック Light"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2428,7 +2522,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -3017,13 +3111,213 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3132,12 +3426,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3150,91 +3438,109 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3297,323 +3603,284 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3633,9 +3900,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3673,7 +3940,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3779,7 +4046,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3921,7 +4188,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3932,10 +4199,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N53"/>
+  <dimension ref="B1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -3956,71 +4223,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" customHeight="1">
-      <c r="B1" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="69"/>
+      <c r="B1" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="73"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="2:11" ht="17" customHeight="1" thickBot="1">
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="1"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1">
-      <c r="B3" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="90" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" s="73" t="s">
-        <v>143</v>
+      <c r="B3" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="87"/>
+      <c r="J3" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="77" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="B4" s="89"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="80" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="81"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="74"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="78"/>
     </row>
     <row r="5" spans="2:11" ht="16" customHeight="1">
       <c r="B5" s="6" t="s">
@@ -4029,25 +4296,25 @@
       <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="76"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="87"/>
+      <c r="I5" s="91"/>
       <c r="J5" s="8">
         <v>2</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="16" customHeight="1">
@@ -4057,25 +4324,25 @@
       <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="66"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="12" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16" customHeight="1">
@@ -4085,25 +4352,25 @@
       <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="66"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="62"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="14" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="16" customHeight="1">
@@ -4113,25 +4380,25 @@
       <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="66"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="I8" s="62"/>
+      <c r="H8" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="72"/>
       <c r="J8" s="12" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="16" customHeight="1">
@@ -4141,25 +4408,25 @@
       <c r="C9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="66"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="I9" s="62"/>
+      <c r="H9" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="72"/>
       <c r="J9" s="12" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="16" customHeight="1">
@@ -4169,22 +4436,22 @@
       <c r="C10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="66"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="I10" s="62"/>
+      <c r="H10" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="72"/>
       <c r="J10" s="12" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>95</v>
@@ -4197,25 +4464,25 @@
       <c r="C11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="66"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" s="62"/>
+      <c r="H11" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="72"/>
       <c r="J11" s="12" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="16" customHeight="1">
@@ -4225,25 +4492,25 @@
       <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="66"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="I12" s="62"/>
+      <c r="H12" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="72"/>
       <c r="J12" s="12" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="16" customHeight="1">
@@ -4253,25 +4520,25 @@
       <c r="C13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="66"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="I13" s="62"/>
+      <c r="H13" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="72"/>
       <c r="J13" s="12" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="16" customHeight="1">
@@ -4281,25 +4548,25 @@
       <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="66"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" s="62"/>
+      <c r="H14" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="72"/>
       <c r="J14" s="11">
         <v>3</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="16" customHeight="1">
@@ -4309,25 +4576,25 @@
       <c r="C15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="66"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="11" t="s">
         <v>79</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="I15" s="62"/>
+      <c r="H15" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="72"/>
       <c r="J15" s="11">
         <v>3</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="16" customHeight="1">
@@ -4337,25 +4604,25 @@
       <c r="C16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="66"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="11" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="I16" s="62"/>
+      <c r="H16" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="72"/>
       <c r="J16" s="11">
         <v>3</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="16" customHeight="1">
@@ -4365,25 +4632,25 @@
       <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="66"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="11" t="s">
         <v>81</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="I17" s="62"/>
+      <c r="H17" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="72"/>
       <c r="J17" s="11">
         <v>3</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="16" customHeight="1">
@@ -4393,25 +4660,25 @@
       <c r="C18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="66"/>
+      <c r="E18" s="70"/>
       <c r="F18" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="61" t="s">
+      <c r="H18" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="62"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="14" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="16" customHeight="1">
@@ -4421,25 +4688,25 @@
       <c r="C19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="66"/>
+      <c r="E19" s="70"/>
       <c r="F19" s="11" t="s">
         <v>83</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="62"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="14" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="16" customHeight="1">
@@ -4449,25 +4716,25 @@
       <c r="C20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="66"/>
+      <c r="E20" s="70"/>
       <c r="F20" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="62"/>
+      <c r="I20" s="72"/>
       <c r="J20" s="14" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="16" customHeight="1">
@@ -4477,25 +4744,25 @@
       <c r="C21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="66"/>
+      <c r="E21" s="70"/>
       <c r="F21" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="61" t="s">
+      <c r="H21" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="62"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="14" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16" customHeight="1">
@@ -4505,25 +4772,25 @@
       <c r="C22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="66"/>
+      <c r="E22" s="70"/>
       <c r="F22" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="61" t="s">
+      <c r="H22" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="62"/>
+      <c r="I22" s="72"/>
       <c r="J22" s="14" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="16" customHeight="1">
@@ -4533,25 +4800,25 @@
       <c r="C23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="66"/>
+      <c r="E23" s="70"/>
       <c r="F23" s="11" t="s">
         <v>83</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="62"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="14" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="16" customHeight="1">
@@ -4561,25 +4828,25 @@
       <c r="C24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="66"/>
+      <c r="E24" s="70"/>
       <c r="F24" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="62"/>
+      <c r="I24" s="72"/>
       <c r="J24" s="14" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16" customHeight="1">
@@ -4589,25 +4856,25 @@
       <c r="C25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="66"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="62"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="14" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="16" customHeight="1">
@@ -4617,25 +4884,25 @@
       <c r="C26" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="66"/>
+      <c r="E26" s="70"/>
       <c r="F26" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="61" t="s">
+      <c r="H26" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="62"/>
+      <c r="I26" s="72"/>
       <c r="J26" s="11">
         <v>4</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="16" customHeight="1">
@@ -4645,25 +4912,25 @@
       <c r="C27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="66"/>
+      <c r="E27" s="70"/>
       <c r="F27" s="11" t="s">
         <v>81</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="61" t="s">
+      <c r="H27" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="62"/>
+      <c r="I27" s="72"/>
       <c r="J27" s="11">
         <v>3</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="16" customHeight="1">
@@ -4673,25 +4940,25 @@
       <c r="C28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="66"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="62"/>
+      <c r="I28" s="72"/>
       <c r="J28" s="11">
         <v>3</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="16" customHeight="1">
@@ -4701,25 +4968,25 @@
       <c r="C29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="66"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="11" t="s">
         <v>80</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="61" t="s">
+      <c r="H29" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="62"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="11">
         <v>4</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="16" customHeight="1">
@@ -4729,25 +4996,25 @@
       <c r="C30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="66"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="14" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="H30" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="62"/>
+      <c r="I30" s="72"/>
       <c r="J30" s="11">
         <v>3</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="16" customHeight="1">
@@ -4757,25 +5024,25 @@
       <c r="C31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="66"/>
+      <c r="E31" s="70"/>
       <c r="F31" s="14" t="s">
         <v>92</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="61" t="s">
+      <c r="H31" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="62"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="11">
         <v>3</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="16" customHeight="1">
@@ -4785,106 +5052,105 @@
       <c r="C32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="66"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="14" t="s">
         <v>93</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="61" t="s">
+      <c r="H32" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="62"/>
+      <c r="I32" s="72"/>
       <c r="J32" s="11">
         <v>3</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="37" customHeight="1">
-      <c r="B33" s="41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="37" customHeight="1">
+      <c r="B33" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="65" t="s">
+      <c r="D33" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="40" t="s">
+      <c r="E33" s="70"/>
+      <c r="F33" s="38" t="s">
         <v>89</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="I33" s="64"/>
-      <c r="J33" s="39">
+      <c r="H33" s="104" t="s">
+        <v>186</v>
+      </c>
+      <c r="I33" s="105"/>
+      <c r="J33" s="37">
         <v>4</v>
       </c>
-      <c r="K33" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="N33" s="43"/>
-    </row>
-    <row r="34" spans="2:14" ht="16" customHeight="1" thickBot="1">
+      <c r="K33" s="40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B34" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="68"/>
+      <c r="E34" s="99"/>
       <c r="F34" s="17" t="s">
         <v>89</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="H34" s="54" t="s">
+      <c r="H34" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="I34" s="55"/>
+      <c r="I34" s="107"/>
       <c r="J34" s="18">
         <v>3</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="16" customHeight="1" thickBot="1"/>
-    <row r="36" spans="2:14" ht="15" customHeight="1" thickBot="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="16" customHeight="1" thickBot="1"/>
+    <row r="36" spans="2:11" ht="15" customHeight="1" thickBot="1">
       <c r="B36" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D36" s="21"/>
-      <c r="E36" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" s="57"/>
-      <c r="G36" s="58"/>
+      <c r="E36" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="96"/>
+      <c r="G36" s="97"/>
       <c r="H36" s="21"/>
-      <c r="I36" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="J36" s="57"/>
-      <c r="K36" s="58"/>
-    </row>
-    <row r="37" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="I36" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="J36" s="96"/>
+      <c r="K36" s="97"/>
+    </row>
+    <row r="37" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B37" s="23" t="s">
         <v>97</v>
       </c>
@@ -4894,20 +5160,20 @@
       <c r="E37" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="G37" s="58"/>
+      <c r="F37" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" s="97"/>
       <c r="H37" s="21"/>
       <c r="I37" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="J37" s="56" t="s">
+      <c r="J37" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="K37" s="58"/>
-    </row>
-    <row r="38" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="K37" s="97"/>
+    </row>
+    <row r="38" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B38" s="25" t="s">
         <v>98</v>
       </c>
@@ -4917,20 +5183,20 @@
       <c r="E38" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="59" t="s">
+      <c r="F38" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="G38" s="60"/>
+      <c r="G38" s="103"/>
       <c r="H38" s="21"/>
       <c r="I38" s="28">
         <v>0</v>
       </c>
-      <c r="J38" s="59" t="s">
+      <c r="J38" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="60"/>
-    </row>
-    <row r="39" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="K38" s="103"/>
+    </row>
+    <row r="39" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B39" s="25" t="s">
         <v>99</v>
       </c>
@@ -4940,18 +5206,18 @@
       <c r="E39" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="101"/>
       <c r="H39" s="21"/>
       <c r="I39" s="30">
         <v>1</v>
       </c>
-      <c r="J39" s="46" t="s">
+      <c r="J39" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="K39" s="47"/>
-    </row>
-    <row r="40" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="K39" s="101"/>
+    </row>
+    <row r="40" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B40" s="31" t="s">
         <v>100</v>
       </c>
@@ -4961,165 +5227,165 @@
       <c r="E40" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="101"/>
       <c r="H40" s="21"/>
       <c r="I40" s="30">
         <v>2</v>
       </c>
-      <c r="J40" s="46" t="s">
+      <c r="J40" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="K40" s="47"/>
-    </row>
-    <row r="41" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="K40" s="101"/>
+    </row>
+    <row r="41" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B41" s="21"/>
       <c r="E41" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="G41" s="47"/>
+      <c r="F41" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="101"/>
       <c r="H41" s="21"/>
       <c r="I41" s="30">
         <v>3</v>
       </c>
-      <c r="J41" s="46" t="s">
+      <c r="J41" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="K41" s="47"/>
-    </row>
-    <row r="42" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="K41" s="101"/>
+    </row>
+    <row r="42" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B42" s="20" t="s">
         <v>105</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="G42" s="47"/>
+      <c r="F42" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="101"/>
       <c r="H42" s="21"/>
       <c r="I42" s="30">
         <v>4</v>
       </c>
-      <c r="J42" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="K42" s="47"/>
-    </row>
-    <row r="43" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="J42" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="K42" s="101"/>
+    </row>
+    <row r="43" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B43" s="23" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="F43" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="G43" s="47"/>
+      <c r="F43" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="101"/>
       <c r="H43" s="21"/>
       <c r="I43" s="30">
         <v>5</v>
       </c>
-      <c r="J43" s="46" t="s">
+      <c r="J43" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="K43" s="47"/>
-    </row>
-    <row r="44" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="K43" s="101"/>
+    </row>
+    <row r="44" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B44" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="G44" s="47"/>
+      <c r="F44" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="101"/>
       <c r="H44" s="21"/>
       <c r="I44" s="30">
         <v>6</v>
       </c>
-      <c r="J44" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="K44" s="47"/>
-    </row>
-    <row r="45" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="J44" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="K44" s="101"/>
+    </row>
+    <row r="45" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="B45" s="25" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E45" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="F45" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="G45" s="47"/>
+      <c r="F45" s="100" t="s">
+        <v>176</v>
+      </c>
+      <c r="G45" s="101"/>
       <c r="H45" s="21"/>
       <c r="I45" s="30">
         <v>7</v>
       </c>
-      <c r="J45" s="46" t="s">
+      <c r="J45" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="K45" s="47"/>
-    </row>
-    <row r="46" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="K45" s="101"/>
+    </row>
+    <row r="46" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B46" s="31" t="s">
         <v>100</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E46" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="46"/>
-      <c r="G46" s="47"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="101"/>
       <c r="H46" s="21"/>
       <c r="I46" s="30">
         <v>8</v>
       </c>
-      <c r="J46" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="K46" s="47"/>
-    </row>
-    <row r="47" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="J46" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="K46" s="101"/>
+    </row>
+    <row r="47" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="E47" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="113"/>
       <c r="H47" s="21"/>
       <c r="I47" s="30">
         <v>9</v>
       </c>
-      <c r="J47" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="K47" s="47"/>
-    </row>
-    <row r="48" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="J47" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="K47" s="101"/>
+    </row>
+    <row r="48" spans="2:11" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
@@ -5127,98 +5393,90 @@
       <c r="I48" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="J48" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K48" s="47"/>
+      <c r="J48" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="K48" s="101"/>
     </row>
     <row r="49" spans="2:11" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="B49" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="D49" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G49" s="21"/>
+      <c r="B49" s="182" t="s">
+        <v>274</v>
+      </c>
+      <c r="C49" s="185"/>
+      <c r="D49" s="187"/>
+      <c r="E49" s="183" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" s="184"/>
+      <c r="G49" s="186"/>
       <c r="H49" s="21"/>
       <c r="I49" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="J49" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="K49" s="47"/>
+      <c r="J49" s="100" t="s">
+        <v>181</v>
+      </c>
+      <c r="K49" s="101"/>
     </row>
     <row r="50" spans="2:11" s="22" customFormat="1" ht="18">
-      <c r="B50" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
+      <c r="B50" s="182" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" s="185"/>
+      <c r="D50" s="185"/>
+      <c r="E50" s="183" t="s">
+        <v>279</v>
+      </c>
+      <c r="F50" s="187"/>
+      <c r="G50" s="187"/>
       <c r="H50" s="21"/>
       <c r="I50" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="J50" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="K50" s="47"/>
-    </row>
-    <row r="51" spans="2:11" s="22" customFormat="1" ht="16">
-      <c r="B51" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
+      <c r="J50" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="K50" s="101"/>
+    </row>
+    <row r="51" spans="2:11" s="22" customFormat="1">
+      <c r="B51" s="182" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" s="185"/>
+      <c r="D51" s="185"/>
+      <c r="E51" s="183" t="s">
+        <v>280</v>
+      </c>
+      <c r="F51" s="187"/>
+      <c r="G51" s="187"/>
       <c r="H51" s="21"/>
       <c r="I51" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J51" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="K51" s="49"/>
+      <c r="J51" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="K51" s="109"/>
     </row>
     <row r="52" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
-      <c r="B52" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="E52" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
+      <c r="B52" s="182" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" s="185"/>
+      <c r="D52" s="185"/>
+      <c r="E52" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" s="187"/>
+      <c r="G52" s="187"/>
       <c r="H52" s="21"/>
-      <c r="I52" s="38" t="s">
+      <c r="I52" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="J52" s="50"/>
-      <c r="K52" s="51"/>
+      <c r="J52" s="110"/>
+      <c r="K52" s="111"/>
     </row>
     <row r="53" spans="2:11" s="22" customFormat="1">
-      <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="4"/>
@@ -5230,7 +5488,86 @@
       <c r="K53" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
+  <mergeCells count="95">
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="F45:G47"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F38:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="H9:I9"/>
@@ -5247,89 +5584,6 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F38:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="F45:G47"/>
-    <mergeCell ref="J45:K45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5339,1317 +5593,3043 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC88AA75-34B7-1B48-ADFB-242378A3B225}">
-  <dimension ref="B1:U29"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29:P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="8" width="5.5703125" customWidth="1"/>
-    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="1.7109375" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" customWidth="1"/>
-    <col min="17" max="18" width="1.7109375" customWidth="1"/>
-    <col min="19" max="19" width="2.5703125" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" customWidth="1"/>
-    <col min="21" max="21" width="22" customWidth="1"/>
+    <col min="1" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" customWidth="1"/>
+    <col min="18" max="19" width="1.7109375" customWidth="1"/>
+    <col min="20" max="20" width="2.5703125" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" customWidth="1"/>
+    <col min="22" max="22" width="22" customWidth="1"/>
+    <col min="23" max="24" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21">
-      <c r="I1" s="196" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="155"/>
+      <c r="B1" s="156"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="156"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="158"/>
+    </row>
+    <row r="3" spans="1:24" ht="20" customHeight="1">
+      <c r="A3" s="138"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="145" t="s">
+        <v>250</v>
+      </c>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+    </row>
+    <row r="4" spans="1:24" ht="20" customHeight="1">
+      <c r="B4" s="138"/>
+      <c r="C4" s="138" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="138"/>
+      <c r="U4" s="138"/>
+      <c r="V4" s="138"/>
+      <c r="W4" s="138"/>
+    </row>
+    <row r="5" spans="1:24" ht="20" customHeight="1">
+      <c r="B5" s="138"/>
+      <c r="C5" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="134" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="131" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="133"/>
+      <c r="G5" s="134" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="134" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" s="134" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" s="138"/>
+      <c r="L5" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" s="134" t="s">
+        <v>190</v>
+      </c>
+      <c r="N5" s="131" t="s">
+        <v>191</v>
+      </c>
+      <c r="O5" s="132"/>
+      <c r="P5" s="133"/>
+      <c r="Q5" s="134" t="s">
+        <v>192</v>
+      </c>
+      <c r="R5" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="S5" s="125"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="V5" s="134" t="s">
+        <v>194</v>
+      </c>
+      <c r="W5" s="138"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="B6" s="138"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="161" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="167"/>
+      <c r="P6" s="161" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="128"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
+      <c r="W6" s="138"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="B7" s="138"/>
+      <c r="C7" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="162" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="163" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="46">
+        <v>2</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="K7" s="138"/>
+      <c r="L7" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="168" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" s="169"/>
+      <c r="P7" s="170" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="R7" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="123"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="45">
+        <v>3</v>
+      </c>
+      <c r="V7" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="W7" s="138"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="B8" s="138"/>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="162" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="45">
+        <v>4</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="K8" s="138"/>
+      <c r="L8" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="171" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="172"/>
+      <c r="P8" s="163" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="R8" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="123"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="46">
+        <v>3</v>
+      </c>
+      <c r="V8" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="W8" s="138"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="B9" s="138"/>
+      <c r="C9" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="162" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="165" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="46">
+        <v>3</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="138"/>
+      <c r="L9" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="168" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" s="169"/>
+      <c r="P9" s="170" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="R9" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" s="123"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="45">
+        <v>3</v>
+      </c>
+      <c r="V9" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="W9" s="138"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="B10" s="138"/>
+      <c r="C10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="162" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" s="45">
+        <v>4</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="K10" s="138"/>
+      <c r="L10" s="140" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="140" t="s">
+        <v>220</v>
+      </c>
+      <c r="N10" s="173" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="174"/>
+      <c r="P10" s="175" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="143" t="s">
+        <v>249</v>
+      </c>
+      <c r="R10" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" s="117"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="140">
+        <v>4</v>
+      </c>
+      <c r="V10" s="153" t="s">
+        <v>262</v>
+      </c>
+      <c r="W10" s="138"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="B11" s="138"/>
+      <c r="C11" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="162" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="165" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="46">
+        <v>4</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="138"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="176"/>
+      <c r="O11" s="177"/>
+      <c r="P11" s="178"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="130"/>
+      <c r="T11" s="115"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="154"/>
+      <c r="W11" s="138"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="B12" s="138"/>
+      <c r="C12" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="46">
+        <v>4</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="138"/>
+      <c r="L12" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="168" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" s="169"/>
+      <c r="P12" s="179" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="R12" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="123"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="48">
+        <v>3</v>
+      </c>
+      <c r="V12" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="W12" s="138"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="B13" s="138"/>
+      <c r="C13" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="162" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I13" s="46">
+        <v>4</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="138"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="138"/>
+      <c r="V13" s="138"/>
+      <c r="W13" s="138"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="B14" s="138"/>
+      <c r="C14" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="162" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="165" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="139" t="s">
+        <v>199</v>
+      </c>
+      <c r="I14" s="45">
+        <v>4</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="138"/>
+      <c r="L14" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="N14" s="67"/>
+      <c r="O14" s="121" t="s">
+        <v>231</v>
+      </c>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="U14" s="123"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="138"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="B15" s="138"/>
+      <c r="C15" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="162" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" s="46">
+        <v>4</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="K15" s="138"/>
+      <c r="L15" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="M15" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15" s="63"/>
+      <c r="O15" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="121" t="s">
+        <v>106</v>
+      </c>
+      <c r="U15" s="122"/>
+      <c r="V15" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="W15" s="138"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="B16" s="138"/>
+      <c r="C16" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="162" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="164" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I16" s="46">
+        <v>3</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="K16" s="138"/>
+      <c r="L16" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="N16" s="63"/>
+      <c r="O16" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" s="116" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="121">
+        <v>0</v>
+      </c>
+      <c r="U16" s="122"/>
+      <c r="V16" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="W16" s="138"/>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="B17" s="138"/>
+      <c r="C17" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="162" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="164" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I17" s="45">
+        <v>3</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="K17" s="138"/>
+      <c r="L17" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="63"/>
+      <c r="O17" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="114"/>
+      <c r="S17" s="139"/>
+      <c r="T17" s="121">
+        <v>1</v>
+      </c>
+      <c r="U17" s="122"/>
+      <c r="V17" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="W17" s="138"/>
+    </row>
+    <row r="18" spans="2:23">
+      <c r="B18" s="138"/>
+      <c r="C18" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="162" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="164" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I18" s="46">
+        <v>3</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="K18" s="138"/>
+      <c r="L18" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" s="63"/>
+      <c r="O18" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="130"/>
+      <c r="R18" s="115"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="121">
+        <v>2</v>
+      </c>
+      <c r="U18" s="122"/>
+      <c r="V18" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="W18" s="138"/>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" s="138"/>
+      <c r="C19" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="162" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="164" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I19" s="45">
+        <v>3</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="146" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q19" s="147"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="138"/>
+      <c r="T19" s="121">
+        <v>3</v>
+      </c>
+      <c r="U19" s="122"/>
+      <c r="V19" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="W19" s="138"/>
+    </row>
+    <row r="20" spans="2:23">
+      <c r="B20" s="138"/>
+      <c r="C20" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="164" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="46">
+        <v>3</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="138"/>
+      <c r="L20" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="M20" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="N20" s="67"/>
+      <c r="O20" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" s="149" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q20" s="150"/>
+      <c r="R20" s="151"/>
+      <c r="S20" s="139"/>
+      <c r="T20" s="121">
+        <v>4</v>
+      </c>
+      <c r="U20" s="122"/>
+      <c r="V20" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="W20" s="138"/>
+    </row>
+    <row r="21" spans="2:23">
+      <c r="B21" s="138"/>
+      <c r="C21" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="164" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="45">
+        <v>3</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" s="138"/>
+      <c r="L21" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="N21" s="63"/>
+      <c r="O21" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" s="152" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="138"/>
+      <c r="T21" s="121">
+        <v>5</v>
+      </c>
+      <c r="U21" s="122"/>
+      <c r="V21" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="W21" s="138"/>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="B22" s="138"/>
+      <c r="C22" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="164" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="46">
+        <v>3</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" s="138"/>
+      <c r="L22" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="N22" s="63"/>
+      <c r="O22" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="P22" s="152" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q22" s="147"/>
+      <c r="R22" s="148"/>
+      <c r="S22" s="138"/>
+      <c r="T22" s="121">
+        <v>6</v>
+      </c>
+      <c r="U22" s="122"/>
+      <c r="V22" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="W22" s="138"/>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="B23" s="138"/>
+      <c r="C23" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="164" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="45">
+        <v>3</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" s="138"/>
+      <c r="L23" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="M23" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="N23" s="63"/>
+      <c r="O23" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="P23" s="116" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="121">
+        <v>7</v>
+      </c>
+      <c r="U23" s="122"/>
+      <c r="V23" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="W23" s="138"/>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="B24" s="138"/>
+      <c r="C24" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="164" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="46">
+        <v>4</v>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="K24" s="138"/>
+      <c r="L24" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="N24" s="63"/>
+      <c r="O24" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="142"/>
+      <c r="R24" s="114"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="121">
+        <v>8</v>
+      </c>
+      <c r="U24" s="122"/>
+      <c r="V24" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="W24" s="138"/>
+    </row>
+    <row r="25" spans="2:23">
+      <c r="B25" s="138"/>
+      <c r="C25" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="164" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="45">
+        <v>3</v>
+      </c>
+      <c r="J25" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" s="120"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="115"/>
+      <c r="S25" s="139"/>
+      <c r="T25" s="121">
+        <v>9</v>
+      </c>
+      <c r="U25" s="122"/>
+      <c r="V25" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="W25" s="138"/>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="B26" s="138"/>
+      <c r="C26" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="164" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="46">
+        <v>3</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="K26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="U26" s="122"/>
+      <c r="V26" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="W26" s="138"/>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="B27" s="138"/>
+      <c r="C27" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="164" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="45">
+        <v>3</v>
+      </c>
+      <c r="J27" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" s="138"/>
+      <c r="L27" s="182" t="s">
+        <v>264</v>
+      </c>
+      <c r="M27" s="180"/>
+      <c r="N27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="159"/>
+      <c r="S27" s="138"/>
+      <c r="T27" s="121" t="s">
+        <v>117</v>
+      </c>
+      <c r="U27" s="122"/>
+      <c r="V27" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="W27" s="138"/>
+    </row>
+    <row r="28" spans="2:23">
+      <c r="B28" s="138"/>
+      <c r="C28" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="162" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="164" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="46">
+        <v>4</v>
+      </c>
+      <c r="J28" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" s="138"/>
+      <c r="L28" s="182" t="s">
+        <v>265</v>
+      </c>
+      <c r="M28" s="180"/>
+      <c r="N28" s="181"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="U28" s="122"/>
+      <c r="V28" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="W28" s="138"/>
+    </row>
+    <row r="29" spans="2:23">
+      <c r="B29" s="138"/>
+      <c r="C29" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="162" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="164" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="46">
+        <v>3</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" s="138"/>
+      <c r="L29" s="182" t="s">
+        <v>266</v>
+      </c>
+      <c r="M29" s="180"/>
+      <c r="N29" s="181"/>
+      <c r="P29" s="183" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q29" s="181"/>
+      <c r="R29" s="138"/>
+      <c r="S29" s="138"/>
+      <c r="T29" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="U29" s="118"/>
+      <c r="V29" s="140" t="s">
+        <v>248</v>
+      </c>
+      <c r="W29" s="138"/>
+    </row>
+    <row r="30" spans="2:23">
+      <c r="B30" s="138"/>
+      <c r="C30" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" s="162" t="s">
+        <v>254</v>
+      </c>
+      <c r="F30" s="164" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="I30" s="46">
+        <v>3</v>
+      </c>
+      <c r="J30" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" s="138"/>
+      <c r="L30" s="182" t="s">
+        <v>267</v>
+      </c>
+      <c r="M30" s="180"/>
+      <c r="N30" s="181"/>
+      <c r="P30" s="183" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q30" s="181"/>
+      <c r="R30" s="138"/>
+      <c r="S30" s="138"/>
+      <c r="T30" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="U30" s="115"/>
+      <c r="V30" s="141"/>
+      <c r="W30" s="138"/>
+    </row>
+    <row r="31" spans="2:23">
+      <c r="B31" s="138"/>
+      <c r="C31" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="E31" s="162" t="s">
+        <v>254</v>
+      </c>
+      <c r="F31" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="I31" s="46">
+        <v>4</v>
+      </c>
+      <c r="J31" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" s="138"/>
+      <c r="L31" s="183" t="s">
         <v>268</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-    </row>
-    <row r="2" spans="2:21">
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-    </row>
-    <row r="3" spans="2:21" ht="20" customHeight="1">
-      <c r="B3" s="92" t="s">
+      <c r="M31" s="138"/>
+      <c r="N31" s="138"/>
+      <c r="O31" s="138"/>
+      <c r="P31" s="183" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q31" s="138"/>
+      <c r="R31" s="138"/>
+      <c r="S31" s="138"/>
+      <c r="T31" s="138"/>
+      <c r="U31" s="138"/>
+      <c r="V31" s="138"/>
+      <c r="W31" s="138"/>
+    </row>
+    <row r="32" spans="2:23">
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="138"/>
+      <c r="Q32" s="138"/>
+      <c r="R32" s="138"/>
+      <c r="S32" s="138"/>
+      <c r="T32" s="138"/>
+      <c r="U32" s="138"/>
+      <c r="V32" s="138"/>
+      <c r="W32" s="138"/>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="155"/>
+      <c r="B33" s="156"/>
+      <c r="W33" s="155"/>
+      <c r="X33" s="156"/>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" s="157"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="138"/>
+      <c r="P34" s="138"/>
+      <c r="Q34" s="138"/>
+      <c r="R34" s="138"/>
+      <c r="S34" s="138"/>
+      <c r="T34" s="138"/>
+      <c r="U34" s="138"/>
+      <c r="V34" s="138"/>
+      <c r="W34" s="157"/>
+      <c r="X34" s="158"/>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="138"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="138"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="145" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="138"/>
+      <c r="O35" s="138"/>
+      <c r="P35" s="138"/>
+      <c r="Q35" s="138"/>
+      <c r="R35" s="138"/>
+      <c r="S35" s="138"/>
+      <c r="T35" s="138"/>
+      <c r="U35" s="138"/>
+      <c r="V35" s="138"/>
+      <c r="W35" s="138"/>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="B36" s="138"/>
+      <c r="C36" s="138" t="s">
+        <v>263</v>
+      </c>
+      <c r="D36" s="138"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="145"/>
+      <c r="M36" s="145"/>
+      <c r="N36" s="138"/>
+      <c r="O36" s="138"/>
+      <c r="P36" s="138"/>
+      <c r="Q36" s="138"/>
+      <c r="R36" s="138"/>
+      <c r="S36" s="138"/>
+      <c r="T36" s="138"/>
+      <c r="U36" s="138"/>
+      <c r="V36" s="138"/>
+      <c r="W36" s="138"/>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="B37" s="138"/>
+      <c r="C37" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="134" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="131" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="133"/>
+      <c r="G37" s="134" t="s">
+        <v>192</v>
+      </c>
+      <c r="H37" s="134" t="s">
+        <v>193</v>
+      </c>
+      <c r="I37" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="J37" s="134" t="s">
+        <v>194</v>
+      </c>
+      <c r="K37" s="138"/>
+      <c r="L37" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="M37" s="134" t="s">
+        <v>190</v>
+      </c>
+      <c r="N37" s="131" t="s">
+        <v>191</v>
+      </c>
+      <c r="O37" s="132"/>
+      <c r="P37" s="133"/>
+      <c r="Q37" s="134" t="s">
+        <v>192</v>
+      </c>
+      <c r="R37" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="S37" s="125"/>
+      <c r="T37" s="126"/>
+      <c r="U37" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="V37" s="134" t="s">
+        <v>194</v>
+      </c>
+      <c r="W37" s="138"/>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="B38" s="138"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="161" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="136"/>
+      <c r="M38" s="136"/>
+      <c r="N38" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" s="167"/>
+      <c r="P38" s="161" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="135"/>
+      <c r="R38" s="127"/>
+      <c r="S38" s="128"/>
+      <c r="T38" s="129"/>
+      <c r="U38" s="135"/>
+      <c r="V38" s="135"/>
+      <c r="W38" s="138"/>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="B39" s="138"/>
+      <c r="C39" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" s="162" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="163" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="H39" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="46">
+        <v>2</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="K39" s="138"/>
+      <c r="L39" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="N39" s="168" t="s">
+        <v>91</v>
+      </c>
+      <c r="O39" s="169"/>
+      <c r="P39" s="170" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q39" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="R39" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" s="123"/>
+      <c r="T39" s="122"/>
+      <c r="U39" s="45">
+        <v>3</v>
+      </c>
+      <c r="V39" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="W39" s="138"/>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="B40" s="138"/>
+      <c r="C40" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="162" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="45">
+        <v>4</v>
+      </c>
+      <c r="J40" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="K40" s="138"/>
+      <c r="L40" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="N40" s="171" t="s">
+        <v>91</v>
+      </c>
+      <c r="O40" s="172"/>
+      <c r="P40" s="163" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q40" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="R40" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="S40" s="123"/>
+      <c r="T40" s="122"/>
+      <c r="U40" s="46">
+        <v>3</v>
+      </c>
+      <c r="V40" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="W40" s="138"/>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="B41" s="138"/>
+      <c r="C41" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="162" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="165" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="46">
+        <v>3</v>
+      </c>
+      <c r="J41" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="K41" s="138"/>
+      <c r="L41" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="N41" s="168" t="s">
+        <v>91</v>
+      </c>
+      <c r="O41" s="169"/>
+      <c r="P41" s="170" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q41" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="R41" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" s="123"/>
+      <c r="T41" s="122"/>
+      <c r="U41" s="45">
+        <v>3</v>
+      </c>
+      <c r="V41" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="W41" s="138"/>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="B42" s="138"/>
+      <c r="C42" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="162" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="I42" s="45">
+        <v>4</v>
+      </c>
+      <c r="J42" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="95"/>
-      <c r="F3" s="97" t="s">
+      <c r="K42" s="138"/>
+      <c r="L42" s="140" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" s="140" t="s">
+        <v>220</v>
+      </c>
+      <c r="N42" s="173" t="s">
+        <v>91</v>
+      </c>
+      <c r="O42" s="174"/>
+      <c r="P42" s="175" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q42" s="143" t="s">
+        <v>249</v>
+      </c>
+      <c r="R42" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="S42" s="117"/>
+      <c r="T42" s="118"/>
+      <c r="U42" s="140">
+        <v>4</v>
+      </c>
+      <c r="V42" s="153" t="s">
+        <v>262</v>
+      </c>
+      <c r="W42" s="138"/>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="B43" s="138"/>
+      <c r="C43" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="162" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="165" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I43" s="46">
+        <v>4</v>
+      </c>
+      <c r="J43" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="G3" s="97" t="s">
+      <c r="K43" s="138"/>
+      <c r="L43" s="141"/>
+      <c r="M43" s="141"/>
+      <c r="N43" s="176"/>
+      <c r="O43" s="177"/>
+      <c r="P43" s="178"/>
+      <c r="Q43" s="144"/>
+      <c r="R43" s="120"/>
+      <c r="S43" s="130"/>
+      <c r="T43" s="115"/>
+      <c r="U43" s="141"/>
+      <c r="V43" s="154"/>
+      <c r="W43" s="138"/>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="B44" s="138"/>
+      <c r="C44" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I44" s="46">
+        <v>4</v>
+      </c>
+      <c r="J44" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="K44" s="138"/>
+      <c r="L44" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="N44" s="168" t="s">
+        <v>94</v>
+      </c>
+      <c r="O44" s="169"/>
+      <c r="P44" s="179" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q44" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="R44" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="S44" s="123"/>
+      <c r="T44" s="122"/>
+      <c r="U44" s="48">
+        <v>3</v>
+      </c>
+      <c r="V44" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="W44" s="138"/>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="B45" s="138"/>
+      <c r="C45" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="162" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I45" s="46">
+        <v>4</v>
+      </c>
+      <c r="J45" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="H3" s="102" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="97" t="s">
+      <c r="K45" s="138"/>
+      <c r="L45" s="138"/>
+      <c r="M45" s="138"/>
+      <c r="N45" s="138"/>
+      <c r="O45" s="138"/>
+      <c r="P45" s="138"/>
+      <c r="Q45" s="138"/>
+      <c r="R45" s="138"/>
+      <c r="S45" s="138"/>
+      <c r="T45" s="138"/>
+      <c r="U45" s="138"/>
+      <c r="V45" s="138"/>
+      <c r="W45" s="138"/>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="B46" s="138"/>
+      <c r="C46" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="162" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="165" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="139" t="s">
+        <v>199</v>
+      </c>
+      <c r="I46" s="45">
+        <v>4</v>
+      </c>
+      <c r="J46" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="K3" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="L3" s="92" t="s">
-        <v>202</v>
-      </c>
-      <c r="M3" s="94" t="s">
-        <v>203</v>
-      </c>
-      <c r="N3" s="141"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="97" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q3" s="102" t="s">
-        <v>205</v>
-      </c>
-      <c r="R3" s="187"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="97" t="s">
-        <v>198</v>
-      </c>
-      <c r="U3" s="97" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21">
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="96" t="s">
+      <c r="K46" s="138"/>
+      <c r="L46" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M46" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="N46" s="67"/>
+      <c r="O46" s="121" t="s">
+        <v>231</v>
+      </c>
+      <c r="P46" s="123"/>
+      <c r="Q46" s="123"/>
+      <c r="R46" s="122"/>
+      <c r="S46" s="139"/>
+      <c r="T46" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="U46" s="123"/>
+      <c r="V46" s="122"/>
+      <c r="W46" s="138"/>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="B47" s="138"/>
+      <c r="C47" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="162" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47" s="46">
+        <v>4</v>
+      </c>
+      <c r="J47" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="K47" s="138"/>
+      <c r="L47" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="M47" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="N47" s="63"/>
+      <c r="O47" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="P47" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q47" s="123"/>
+      <c r="R47" s="122"/>
+      <c r="S47" s="139"/>
+      <c r="T47" s="121" t="s">
+        <v>106</v>
+      </c>
+      <c r="U47" s="122"/>
+      <c r="V47" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="W47" s="138"/>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="B48" s="138"/>
+      <c r="C48" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="162" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="164" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="H48" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I48" s="46">
+        <v>3</v>
+      </c>
+      <c r="J48" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="K48" s="138"/>
+      <c r="L48" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="M48" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="N48" s="63"/>
+      <c r="O48" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="P48" s="116" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q48" s="117"/>
+      <c r="R48" s="118"/>
+      <c r="S48" s="139"/>
+      <c r="T48" s="121">
         <v>0</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="U48" s="122"/>
+      <c r="V48" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="W48" s="138"/>
+    </row>
+    <row r="49" spans="2:23">
+      <c r="B49" s="138"/>
+      <c r="C49" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="162" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="164" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="H49" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I49" s="45">
+        <v>3</v>
+      </c>
+      <c r="J49" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="K49" s="138"/>
+      <c r="L49" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="M49" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="N49" s="63"/>
+      <c r="O49" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="P49" s="119"/>
+      <c r="Q49" s="142"/>
+      <c r="R49" s="114"/>
+      <c r="S49" s="139"/>
+      <c r="T49" s="121">
         <v>1</v>
       </c>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="98"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="143"/>
-      <c r="O4" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="188"/>
-      <c r="S4" s="155"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-    </row>
-    <row r="5" spans="2:21">
-      <c r="B5" s="104" t="s">
+      <c r="U49" s="122"/>
+      <c r="V49" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="W49" s="138"/>
+    </row>
+    <row r="50" spans="2:23">
+      <c r="B50" s="138"/>
+      <c r="C50" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="162" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="164" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="H50" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I50" s="46">
+        <v>3</v>
+      </c>
+      <c r="J50" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="K50" s="138"/>
+      <c r="L50" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="M50" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="N50" s="63"/>
+      <c r="O50" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="P50" s="120"/>
+      <c r="Q50" s="130"/>
+      <c r="R50" s="115"/>
+      <c r="S50" s="139"/>
+      <c r="T50" s="121">
         <v>2</v>
       </c>
-      <c r="C5" s="104" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="110" t="s">
+      <c r="U50" s="122"/>
+      <c r="V50" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="W50" s="138"/>
+    </row>
+    <row r="51" spans="2:23">
+      <c r="B51" s="138"/>
+      <c r="C51" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="162" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="164" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I51" s="45">
+        <v>3</v>
+      </c>
+      <c r="J51" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="K51" s="138"/>
+      <c r="L51" s="138"/>
+      <c r="M51" s="138"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="P51" s="146" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q51" s="147"/>
+      <c r="R51" s="148"/>
+      <c r="S51" s="138"/>
+      <c r="T51" s="121">
+        <v>3</v>
+      </c>
+      <c r="U51" s="122"/>
+      <c r="V51" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="W51" s="138"/>
+    </row>
+    <row r="52" spans="2:23">
+      <c r="B52" s="138"/>
+      <c r="C52" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="164" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" s="46">
+        <v>3</v>
+      </c>
+      <c r="J52" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="K52" s="138"/>
+      <c r="L52" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="M52" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="N52" s="67"/>
+      <c r="O52" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="P52" s="149" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q52" s="150"/>
+      <c r="R52" s="151"/>
+      <c r="S52" s="139"/>
+      <c r="T52" s="121">
+        <v>4</v>
+      </c>
+      <c r="U52" s="122"/>
+      <c r="V52" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="W52" s="138"/>
+    </row>
+    <row r="53" spans="2:23">
+      <c r="B53" s="138"/>
+      <c r="C53" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="164" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" s="45">
+        <v>3</v>
+      </c>
+      <c r="J53" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="K53" s="138"/>
+      <c r="L53" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="M53" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="N53" s="63"/>
+      <c r="O53" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="P53" s="152" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q53" s="147"/>
+      <c r="R53" s="148"/>
+      <c r="S53" s="138"/>
+      <c r="T53" s="121">
+        <v>5</v>
+      </c>
+      <c r="U53" s="122"/>
+      <c r="V53" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="W53" s="138"/>
+    </row>
+    <row r="54" spans="2:23">
+      <c r="B54" s="138"/>
+      <c r="C54" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E54" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="164" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I54" s="46">
+        <v>3</v>
+      </c>
+      <c r="J54" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K54" s="138"/>
+      <c r="L54" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="M54" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="N54" s="63"/>
+      <c r="O54" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="P54" s="152" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q54" s="147"/>
+      <c r="R54" s="148"/>
+      <c r="S54" s="138"/>
+      <c r="T54" s="121">
+        <v>6</v>
+      </c>
+      <c r="U54" s="122"/>
+      <c r="V54" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="W54" s="138"/>
+    </row>
+    <row r="55" spans="2:23">
+      <c r="B55" s="138"/>
+      <c r="C55" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="164" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" s="45">
+        <v>3</v>
+      </c>
+      <c r="J55" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="K55" s="138"/>
+      <c r="L55" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="M55" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="N55" s="63"/>
+      <c r="O55" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="P55" s="116" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q55" s="117"/>
+      <c r="R55" s="118"/>
+      <c r="S55" s="139"/>
+      <c r="T55" s="121">
+        <v>7</v>
+      </c>
+      <c r="U55" s="122"/>
+      <c r="V55" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="W55" s="138"/>
+    </row>
+    <row r="56" spans="2:23">
+      <c r="B56" s="138"/>
+      <c r="C56" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="164" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" s="46">
+        <v>4</v>
+      </c>
+      <c r="J56" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="K56" s="138"/>
+      <c r="L56" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="M56" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="N56" s="63"/>
+      <c r="O56" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="P56" s="119"/>
+      <c r="Q56" s="142"/>
+      <c r="R56" s="114"/>
+      <c r="S56" s="139"/>
+      <c r="T56" s="121">
+        <v>8</v>
+      </c>
+      <c r="U56" s="122"/>
+      <c r="V56" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="W56" s="138"/>
+    </row>
+    <row r="57" spans="2:23">
+      <c r="B57" s="138"/>
+      <c r="C57" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="164" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" s="45">
+        <v>3</v>
+      </c>
+      <c r="J57" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="K57" s="138"/>
+      <c r="L57" s="138"/>
+      <c r="M57" s="138"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="P57" s="120"/>
+      <c r="Q57" s="130"/>
+      <c r="R57" s="115"/>
+      <c r="S57" s="139"/>
+      <c r="T57" s="121">
+        <v>9</v>
+      </c>
+      <c r="U57" s="122"/>
+      <c r="V57" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="W57" s="138"/>
+    </row>
+    <row r="58" spans="2:23">
+      <c r="B58" s="138"/>
+      <c r="C58" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="164" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" s="46">
+        <v>3</v>
+      </c>
+      <c r="J58" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="K58" s="138"/>
+      <c r="L58" s="138"/>
+      <c r="M58" s="138"/>
+      <c r="N58" s="138"/>
+      <c r="O58" s="138"/>
+      <c r="P58" s="138"/>
+      <c r="Q58" s="138"/>
+      <c r="R58" s="138"/>
+      <c r="S58" s="138"/>
+      <c r="T58" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="U58" s="122"/>
+      <c r="V58" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="W58" s="138"/>
+    </row>
+    <row r="59" spans="2:23">
+      <c r="B59" s="138"/>
+      <c r="C59" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" s="164" t="s">
+        <v>85</v>
+      </c>
+      <c r="G59" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" s="45">
+        <v>3</v>
+      </c>
+      <c r="J59" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="K59" s="138"/>
+      <c r="L59" s="182" t="s">
+        <v>264</v>
+      </c>
+      <c r="M59" s="180"/>
+      <c r="N59" s="181"/>
+      <c r="P59" s="181"/>
+      <c r="Q59" s="159"/>
+      <c r="R59" s="138"/>
+      <c r="S59" s="138"/>
+      <c r="T59" s="121" t="s">
+        <v>117</v>
+      </c>
+      <c r="U59" s="122"/>
+      <c r="V59" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="W59" s="138"/>
+    </row>
+    <row r="60" spans="2:23">
+      <c r="B60" s="138"/>
+      <c r="C60" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="162" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" s="164" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="H60" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" s="46">
+        <v>4</v>
+      </c>
+      <c r="J60" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="K60" s="138"/>
+      <c r="L60" s="182" t="s">
+        <v>265</v>
+      </c>
+      <c r="M60" s="180"/>
+      <c r="N60" s="181"/>
+      <c r="Q60" s="159"/>
+      <c r="R60" s="138"/>
+      <c r="S60" s="138"/>
+      <c r="T60" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="U60" s="122"/>
+      <c r="V60" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="W60" s="138"/>
+    </row>
+    <row r="61" spans="2:23">
+      <c r="B61" s="138"/>
+      <c r="C61" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="162" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61" s="164" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="H61" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61" s="46">
+        <v>3</v>
+      </c>
+      <c r="J61" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="K61" s="138"/>
+      <c r="L61" s="182" t="s">
+        <v>266</v>
+      </c>
+      <c r="M61" s="180"/>
+      <c r="N61" s="181"/>
+      <c r="P61" s="183" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q61" s="159"/>
+      <c r="R61" s="138"/>
+      <c r="S61" s="138"/>
+      <c r="T61" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="U61" s="118"/>
+      <c r="V61" s="140" t="s">
+        <v>248</v>
+      </c>
+      <c r="W61" s="138"/>
+    </row>
+    <row r="62" spans="2:23">
+      <c r="B62" s="138"/>
+      <c r="C62" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E62" s="162" t="s">
+        <v>254</v>
+      </c>
+      <c r="F62" s="164" t="s">
+        <v>255</v>
+      </c>
+      <c r="G62" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="H62" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="I62" s="46">
+        <v>3</v>
+      </c>
+      <c r="J62" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="K62" s="138"/>
+      <c r="L62" s="182" t="s">
         <v>267</v>
       </c>
-      <c r="G5" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="107">
-        <v>2</v>
-      </c>
-      <c r="I5" s="104" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="148" t="s">
-        <v>90</v>
-      </c>
-      <c r="N5" s="149"/>
-      <c r="O5" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" s="128" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q5" s="165" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="167"/>
-      <c r="S5" s="166"/>
-      <c r="T5" s="108">
-        <v>3</v>
-      </c>
-      <c r="U5" s="126" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21">
-      <c r="B6" s="100" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="100" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="105" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="106">
+      <c r="M62" s="180"/>
+      <c r="N62" s="181"/>
+      <c r="P62" s="183" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q62" s="159"/>
+      <c r="R62" s="138"/>
+      <c r="S62" s="138"/>
+      <c r="T62" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="U62" s="115"/>
+      <c r="V62" s="141"/>
+      <c r="W62" s="138"/>
+    </row>
+    <row r="63" spans="2:23">
+      <c r="B63" s="138"/>
+      <c r="C63" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="E63" s="162" t="s">
+        <v>254</v>
+      </c>
+      <c r="F63" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="G63" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="H63" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="I63" s="46">
         <v>4</v>
       </c>
-      <c r="I6" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="K6" s="130" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="144" t="s">
-        <v>90</v>
-      </c>
-      <c r="N6" s="145"/>
-      <c r="O6" s="107" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" s="110" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q6" s="165" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="167"/>
-      <c r="S6" s="166"/>
-      <c r="T6" s="107">
-        <v>4</v>
-      </c>
-      <c r="U6" s="114" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21">
-      <c r="B7" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="107">
-        <v>3</v>
-      </c>
-      <c r="I7" s="104" t="s">
-        <v>215</v>
-      </c>
-      <c r="K7" s="120" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="148" t="s">
-        <v>91</v>
-      </c>
-      <c r="N7" s="149"/>
-      <c r="O7" s="122" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="131" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q7" s="165" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="167"/>
-      <c r="S7" s="166"/>
-      <c r="T7" s="106">
-        <v>3</v>
-      </c>
-      <c r="U7" s="100" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21">
-      <c r="B8" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="H8" s="106">
-        <v>4</v>
-      </c>
-      <c r="I8" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="K8" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="104" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" s="146" t="s">
-        <v>91</v>
-      </c>
-      <c r="N8" s="147"/>
-      <c r="O8" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="P8" s="110" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="165" t="s">
-        <v>36</v>
-      </c>
-      <c r="R8" s="167"/>
-      <c r="S8" s="166"/>
-      <c r="T8" s="107">
-        <v>3</v>
-      </c>
-      <c r="U8" s="104" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21">
-      <c r="B9" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="H9" s="107">
-        <v>4</v>
-      </c>
-      <c r="I9" s="101" t="s">
-        <v>217</v>
-      </c>
-      <c r="K9" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="100" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="150" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="151"/>
-      <c r="O9" s="122" t="s">
-        <v>93</v>
-      </c>
-      <c r="P9" s="131" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q9" s="165" t="s">
-        <v>36</v>
-      </c>
-      <c r="R9" s="167"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="106">
-        <v>3</v>
-      </c>
-      <c r="U9" s="100" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21">
-      <c r="B10" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="H10" s="107">
-        <v>4</v>
-      </c>
-      <c r="I10" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="104" t="s">
-        <v>233</v>
-      </c>
-      <c r="M10" s="146" t="s">
-        <v>91</v>
-      </c>
-      <c r="N10" s="147"/>
-      <c r="O10" s="105" t="s">
-        <v>89</v>
-      </c>
-      <c r="P10" s="110" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q10" s="165" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10" s="167"/>
-      <c r="S10" s="166"/>
-      <c r="T10" s="107">
-        <v>4</v>
-      </c>
-      <c r="U10" s="104" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21">
-      <c r="B11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="H11" s="107">
-        <v>4</v>
-      </c>
-      <c r="I11" s="117" t="s">
-        <v>218</v>
-      </c>
-      <c r="K11" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="101" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="150" t="s">
-        <v>94</v>
-      </c>
-      <c r="N11" s="151"/>
-      <c r="O11" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="P11" s="129" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q11" s="165" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="167"/>
-      <c r="S11" s="166"/>
-      <c r="T11" s="109">
-        <v>3</v>
-      </c>
-      <c r="U11" s="101" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21">
-      <c r="B12" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="116" t="s">
-        <v>212</v>
-      </c>
-      <c r="H12" s="106">
-        <v>4</v>
-      </c>
-      <c r="I12" s="117" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21">
-      <c r="B13" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="H13" s="107">
-        <v>4</v>
-      </c>
-      <c r="I13" s="117" t="s">
-        <v>220</v>
-      </c>
-      <c r="K13" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="137" t="s">
-        <v>241</v>
-      </c>
-      <c r="M13" s="163"/>
-      <c r="N13" s="171" t="s">
-        <v>247</v>
-      </c>
-      <c r="O13" s="172"/>
-      <c r="P13" s="172"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="157" t="s">
-        <v>254</v>
-      </c>
-      <c r="T13" s="156"/>
-      <c r="U13" s="158"/>
-    </row>
-    <row r="14" spans="2:21">
-      <c r="B14" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="107" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="107" t="s">
-        <v>267</v>
-      </c>
-      <c r="G14" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="H14" s="107">
-        <v>3</v>
-      </c>
-      <c r="I14" s="104" t="s">
-        <v>221</v>
-      </c>
-      <c r="K14" s="105" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" s="138" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" s="135"/>
-      <c r="N14" s="112" t="s">
-        <v>106</v>
-      </c>
-      <c r="O14" s="178" t="s">
-        <v>248</v>
-      </c>
-      <c r="P14" s="179"/>
-      <c r="Q14" s="180"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="171" t="s">
-        <v>106</v>
-      </c>
-      <c r="T14" s="173"/>
-      <c r="U14" s="108" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21">
-      <c r="B15" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="107" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="107" t="s">
-        <v>267</v>
-      </c>
-      <c r="G15" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="H15" s="106">
-        <v>3</v>
-      </c>
-      <c r="I15" s="104" t="s">
-        <v>221</v>
-      </c>
-      <c r="K15" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" s="135" t="s">
-        <v>102</v>
-      </c>
-      <c r="M15" s="135"/>
-      <c r="N15" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="O15" s="168" t="s">
-        <v>114</v>
-      </c>
-      <c r="P15" s="168"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="132"/>
-      <c r="S15" s="165">
-        <v>0</v>
-      </c>
-      <c r="T15" s="166"/>
-      <c r="U15" s="107" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21">
-      <c r="B16" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="107" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="107" t="s">
-        <v>267</v>
-      </c>
-      <c r="G16" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="H16" s="107">
-        <v>3</v>
-      </c>
-      <c r="I16" s="104" t="s">
-        <v>222</v>
-      </c>
-      <c r="K16" s="133" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16" s="138" t="s">
-        <v>103</v>
-      </c>
-      <c r="M16" s="135"/>
-      <c r="N16" s="127" t="s">
-        <v>123</v>
-      </c>
-      <c r="O16" s="168"/>
-      <c r="P16" s="168"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="159">
-        <v>1</v>
-      </c>
-      <c r="T16" s="160"/>
-      <c r="U16" s="163" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21">
-      <c r="B17" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="100" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="107" t="s">
-        <v>267</v>
-      </c>
-      <c r="G17" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="H17" s="106">
-        <v>3</v>
-      </c>
-      <c r="I17" s="104" t="s">
-        <v>222</v>
-      </c>
-      <c r="K17" s="125" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="136" t="s">
-        <v>104</v>
-      </c>
-      <c r="M17" s="135"/>
-      <c r="N17" s="127" t="s">
-        <v>107</v>
-      </c>
-      <c r="O17" s="168"/>
-      <c r="P17" s="168"/>
-      <c r="Q17" s="160"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="157">
-        <v>2</v>
-      </c>
-      <c r="T17" s="158"/>
-      <c r="U17" s="134" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21">
-      <c r="B18" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="107" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="107">
-        <v>3</v>
-      </c>
-      <c r="I18" s="104" t="s">
-        <v>223</v>
-      </c>
-      <c r="M18" s="135"/>
-      <c r="N18" s="114" t="s">
-        <v>108</v>
-      </c>
-      <c r="O18" s="181" t="s">
-        <v>249</v>
-      </c>
-      <c r="P18" s="182"/>
-      <c r="Q18" s="183"/>
-      <c r="R18" s="140"/>
-      <c r="S18" s="165">
-        <v>3</v>
-      </c>
-      <c r="T18" s="166"/>
-      <c r="U18" s="137" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21">
-      <c r="B19" s="100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="107" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="106">
-        <v>3</v>
-      </c>
-      <c r="I19" s="100" t="s">
-        <v>224</v>
-      </c>
-      <c r="K19" s="126" t="s">
-        <v>242</v>
-      </c>
-      <c r="L19" s="126" t="s">
-        <v>241</v>
-      </c>
-      <c r="M19" s="170"/>
-      <c r="N19" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="O19" s="152" t="s">
-        <v>250</v>
-      </c>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="174"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="161">
-        <v>4</v>
-      </c>
-      <c r="T19" s="162"/>
-      <c r="U19" s="164" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21">
-      <c r="B20" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="104" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="107" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="107">
-        <v>3</v>
-      </c>
-      <c r="I20" s="104" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="133" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="104" t="s">
-        <v>243</v>
-      </c>
-      <c r="M20" s="135"/>
-      <c r="N20" s="114" t="s">
-        <v>110</v>
-      </c>
-      <c r="O20" s="184" t="s">
-        <v>251</v>
-      </c>
-      <c r="P20" s="185"/>
-      <c r="Q20" s="186"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="159">
-        <v>5</v>
-      </c>
-      <c r="T20" s="160"/>
-      <c r="U20" s="163" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21">
-      <c r="B21" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="107" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="106">
-        <v>3</v>
-      </c>
-      <c r="I21" s="100" t="s">
-        <v>226</v>
-      </c>
-      <c r="K21" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="L21" s="100" t="s">
-        <v>244</v>
-      </c>
-      <c r="M21" s="135"/>
-      <c r="N21" s="127" t="s">
-        <v>111</v>
-      </c>
-      <c r="O21" s="169" t="s">
-        <v>252</v>
-      </c>
-      <c r="P21" s="169"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="165">
-        <v>6</v>
-      </c>
-      <c r="T21" s="166"/>
-      <c r="U21" s="107" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21">
-      <c r="B22" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="104" t="s">
-        <v>210</v>
-      </c>
-      <c r="D22" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="107" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="107">
-        <v>4</v>
-      </c>
-      <c r="I22" s="104" t="s">
-        <v>227</v>
-      </c>
-      <c r="K22" s="133" t="s">
-        <v>99</v>
-      </c>
-      <c r="L22" s="104" t="s">
-        <v>245</v>
-      </c>
-      <c r="M22" s="135"/>
-      <c r="N22" s="126" t="s">
-        <v>112</v>
-      </c>
-      <c r="O22" s="156" t="s">
-        <v>253</v>
-      </c>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="159">
-        <v>7</v>
-      </c>
-      <c r="T22" s="160"/>
-      <c r="U22" s="163" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21">
-      <c r="B23" s="100" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="107" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="106">
-        <v>3</v>
-      </c>
-      <c r="I23" s="100" t="s">
-        <v>228</v>
-      </c>
-      <c r="K23" s="125" t="s">
-        <v>100</v>
-      </c>
-      <c r="L23" s="101" t="s">
-        <v>246</v>
-      </c>
-      <c r="M23" s="135"/>
-      <c r="N23" s="127" t="s">
-        <v>123</v>
-      </c>
-      <c r="O23" s="168"/>
-      <c r="P23" s="168"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="132"/>
-      <c r="S23" s="165">
-        <v>8</v>
-      </c>
-      <c r="T23" s="166"/>
-      <c r="U23" s="107" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21">
-      <c r="B24" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="107" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="107">
-        <v>3</v>
-      </c>
-      <c r="I24" s="119" t="s">
-        <v>229</v>
-      </c>
-      <c r="M24" s="135"/>
-      <c r="N24" s="177" t="s">
-        <v>113</v>
-      </c>
-      <c r="O24" s="176"/>
-      <c r="P24" s="176"/>
-      <c r="Q24" s="162"/>
-      <c r="R24" s="132"/>
-      <c r="S24" s="159">
-        <v>9</v>
-      </c>
-      <c r="T24" s="160"/>
-      <c r="U24" s="163" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21">
-      <c r="B25" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="107" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="106">
-        <v>3</v>
-      </c>
-      <c r="I25" s="118" t="s">
-        <v>230</v>
-      </c>
-      <c r="S25" s="165" t="s">
-        <v>116</v>
-      </c>
-      <c r="T25" s="166"/>
-      <c r="U25" s="107" t="s">
+      <c r="J63" s="43" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="26" spans="2:21">
-      <c r="B26" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="104" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="107" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="107" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="107">
-        <v>4</v>
-      </c>
-      <c r="I26" s="104" t="s">
-        <v>231</v>
-      </c>
-      <c r="K26" s="191" t="s">
-        <v>127</v>
-      </c>
-      <c r="L26" s="192" t="s">
-        <v>199</v>
-      </c>
-      <c r="M26" s="193" t="s">
-        <v>134</v>
-      </c>
-      <c r="N26" s="193"/>
-      <c r="O26" s="191" t="s">
-        <v>135</v>
-      </c>
-      <c r="P26" s="194"/>
-      <c r="S26" s="159" t="s">
-        <v>117</v>
-      </c>
-      <c r="T26" s="160"/>
-      <c r="U26" s="163" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21">
-      <c r="B27" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="104" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="107" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="107">
-        <v>3</v>
-      </c>
-      <c r="I27" s="104" t="s">
-        <v>232</v>
-      </c>
-      <c r="K27" s="191" t="s">
-        <v>128</v>
-      </c>
-      <c r="L27" s="192" t="s">
-        <v>129</v>
-      </c>
-      <c r="M27" s="195" t="s">
-        <v>265</v>
-      </c>
-      <c r="N27" s="195"/>
-      <c r="O27" s="195"/>
-      <c r="P27" s="195"/>
-      <c r="S27" s="165" t="s">
-        <v>118</v>
-      </c>
-      <c r="T27" s="166"/>
-      <c r="U27" s="107" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21">
-      <c r="K28" s="191" t="s">
-        <v>130</v>
-      </c>
-      <c r="L28" s="192" t="s">
-        <v>132</v>
-      </c>
-      <c r="M28" s="195" t="s">
-        <v>266</v>
-      </c>
-      <c r="N28" s="195"/>
-      <c r="O28" s="195"/>
-      <c r="P28" s="195"/>
-      <c r="S28" s="159" t="s">
-        <v>123</v>
-      </c>
-      <c r="T28" s="160"/>
-      <c r="U28" s="160" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21">
-      <c r="K29" s="191" t="s">
-        <v>131</v>
-      </c>
-      <c r="L29" s="192" t="s">
-        <v>133</v>
-      </c>
-      <c r="M29" s="195" t="s">
-        <v>136</v>
-      </c>
-      <c r="N29" s="195"/>
-      <c r="O29" s="195"/>
-      <c r="P29" s="195"/>
-      <c r="S29" s="189" t="s">
-        <v>119</v>
-      </c>
-      <c r="T29" s="190"/>
-      <c r="U29" s="162"/>
+      <c r="K63" s="138"/>
+      <c r="L63" s="183" t="s">
+        <v>268</v>
+      </c>
+      <c r="M63" s="138"/>
+      <c r="N63" s="138"/>
+      <c r="O63" s="138"/>
+      <c r="P63" s="183" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q63" s="138"/>
+      <c r="R63" s="138"/>
+      <c r="S63" s="138"/>
+      <c r="T63" s="138"/>
+      <c r="U63" s="138"/>
+      <c r="V63" s="138"/>
+      <c r="W63" s="138"/>
+    </row>
+    <row r="64" spans="2:23">
+      <c r="B64" s="138"/>
+      <c r="C64" s="138"/>
+      <c r="D64" s="138"/>
+      <c r="E64" s="138"/>
+      <c r="F64" s="138"/>
+      <c r="G64" s="138"/>
+      <c r="H64" s="138"/>
+      <c r="I64" s="138"/>
+      <c r="J64" s="138"/>
+      <c r="K64" s="138"/>
+      <c r="L64" s="138"/>
+      <c r="M64" s="138"/>
+      <c r="N64" s="138"/>
+      <c r="O64" s="138"/>
+      <c r="P64" s="138"/>
+      <c r="Q64" s="138"/>
+      <c r="R64" s="138"/>
+      <c r="S64" s="138"/>
+      <c r="T64" s="138"/>
+      <c r="U64" s="138"/>
+      <c r="V64" s="138"/>
+      <c r="W64" s="138"/>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65" s="155"/>
+      <c r="B65" s="156"/>
+      <c r="C65" s="138"/>
+      <c r="D65" s="138"/>
+      <c r="E65" s="138"/>
+      <c r="F65" s="138"/>
+      <c r="G65" s="138"/>
+      <c r="H65" s="138"/>
+      <c r="I65" s="138"/>
+      <c r="J65" s="138"/>
+      <c r="K65" s="138"/>
+      <c r="L65" s="138"/>
+      <c r="M65" s="138"/>
+      <c r="N65" s="138"/>
+      <c r="O65" s="138"/>
+      <c r="P65" s="138"/>
+      <c r="Q65" s="138"/>
+      <c r="R65" s="138"/>
+      <c r="S65" s="138"/>
+      <c r="T65" s="138"/>
+      <c r="U65" s="138"/>
+      <c r="V65" s="138"/>
+      <c r="W65" s="155"/>
+      <c r="X65" s="156"/>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="A66" s="157"/>
+      <c r="B66" s="158"/>
+      <c r="W66" s="157"/>
+      <c r="X66" s="158"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="Q3:S4"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="O15:Q17"/>
-    <mergeCell ref="O22:Q24"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D3:E3"/>
+  <mergeCells count="116">
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="J35:M36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="R37:T38"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="O46:R46"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="R42:T43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="N42:O43"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="P48:R50"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="P55:R57"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="V61:V62"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P16:R18"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P23:R25"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="R10:T11"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T24:U24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="54" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="42" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="42" max="16383" man="1"/>
   </rowBreaks>
